--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C2" t="n">
-        <v>318.8</v>
+        <v>315</v>
       </c>
       <c r="D2" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F2" t="n">
-        <v>4159.3615</v>
+        <v>1092.298</v>
       </c>
       <c r="G2" t="n">
-        <v>316.1133333333335</v>
+        <v>-5992.683071009997</v>
       </c>
       <c r="H2" t="n">
-        <v>313.5499999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>318.8</v>
+        <v>312.8</v>
       </c>
       <c r="C3" t="n">
-        <v>318.7</v>
+        <v>312.8</v>
       </c>
       <c r="D3" t="n">
-        <v>318.8</v>
+        <v>312.8</v>
       </c>
       <c r="E3" t="n">
-        <v>318.7</v>
+        <v>312.8</v>
       </c>
       <c r="F3" t="n">
-        <v>635.7</v>
+        <v>931.7394</v>
       </c>
       <c r="G3" t="n">
-        <v>316.4000000000001</v>
+        <v>-6924.422471009997</v>
       </c>
       <c r="H3" t="n">
-        <v>313.6283333333331</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>318.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>319.5</v>
+        <v>311.8</v>
       </c>
       <c r="C4" t="n">
-        <v>319.5</v>
+        <v>310.3</v>
       </c>
       <c r="D4" t="n">
-        <v>319.5</v>
+        <v>311.8</v>
       </c>
       <c r="E4" t="n">
-        <v>319.5</v>
+        <v>310.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2280.0811</v>
       </c>
       <c r="G4" t="n">
-        <v>316.7466666666668</v>
+        <v>-9204.503571009996</v>
       </c>
       <c r="H4" t="n">
-        <v>313.7216666666664</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>318.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319.5</v>
+        <v>315.4</v>
       </c>
       <c r="C5" t="n">
-        <v>319.5</v>
+        <v>315.3</v>
       </c>
       <c r="D5" t="n">
-        <v>319.5</v>
+        <v>315.4</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5</v>
+        <v>315.3</v>
       </c>
       <c r="F5" t="n">
-        <v>12.333</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>317.1000000000001</v>
+        <v>-9200.503571009996</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8133333333331</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>319.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319.5</v>
+        <v>315.1</v>
       </c>
       <c r="C6" t="n">
-        <v>319.8</v>
+        <v>315.1</v>
       </c>
       <c r="D6" t="n">
-        <v>319.8</v>
+        <v>315.1</v>
       </c>
       <c r="E6" t="n">
-        <v>319.5</v>
+        <v>315.1</v>
       </c>
       <c r="F6" t="n">
-        <v>973.9571999999999</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>317.4866666666668</v>
+        <v>-9204.503571009996</v>
       </c>
       <c r="H6" t="n">
-        <v>313.9599999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>319.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>319.6</v>
+        <v>313.3</v>
       </c>
       <c r="C7" t="n">
-        <v>319.8</v>
+        <v>312.9</v>
       </c>
       <c r="D7" t="n">
-        <v>319.8</v>
+        <v>313.3</v>
       </c>
       <c r="E7" t="n">
-        <v>319.6</v>
+        <v>312.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1383.0953</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>317.8266666666668</v>
+        <v>-9214.503571009996</v>
       </c>
       <c r="H7" t="n">
-        <v>314.0566666666664</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>319.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>319.8</v>
+        <v>312.8</v>
       </c>
       <c r="C8" t="n">
-        <v>319.8</v>
+        <v>312</v>
       </c>
       <c r="D8" t="n">
-        <v>319.8</v>
+        <v>312.8</v>
       </c>
       <c r="E8" t="n">
-        <v>319.8</v>
+        <v>312</v>
       </c>
       <c r="F8" t="n">
-        <v>920.1068</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>318.1000000000002</v>
+        <v>-9232.503571009996</v>
       </c>
       <c r="H8" t="n">
-        <v>314.2049999999997</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>319.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>319.8</v>
+        <v>311.9</v>
       </c>
       <c r="C9" t="n">
-        <v>322.4</v>
+        <v>311.8</v>
       </c>
       <c r="D9" t="n">
-        <v>322.4</v>
+        <v>311.9</v>
       </c>
       <c r="E9" t="n">
-        <v>319.8</v>
+        <v>311.8</v>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>318.5466666666669</v>
+        <v>-9236.503571009996</v>
       </c>
       <c r="H9" t="n">
-        <v>314.4116666666663</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>318</v>
+        <v>311.7</v>
       </c>
       <c r="C10" t="n">
-        <v>322.3</v>
+        <v>311</v>
       </c>
       <c r="D10" t="n">
-        <v>322.3</v>
+        <v>311.7</v>
       </c>
       <c r="E10" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F10" t="n">
-        <v>5002.8929</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>318.9866666666668</v>
+        <v>-9252.503571009996</v>
       </c>
       <c r="H10" t="n">
-        <v>314.6016666666663</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>320</v>
+        <v>310.9</v>
       </c>
       <c r="C11" t="n">
-        <v>320</v>
+        <v>310.2</v>
       </c>
       <c r="D11" t="n">
-        <v>320</v>
+        <v>310.9</v>
       </c>
       <c r="E11" t="n">
-        <v>320</v>
+        <v>310.2</v>
       </c>
       <c r="F11" t="n">
-        <v>75.23390000000001</v>
+        <v>329.6058</v>
       </c>
       <c r="G11" t="n">
-        <v>319.2733333333335</v>
+        <v>-9582.109371009996</v>
       </c>
       <c r="H11" t="n">
-        <v>314.783333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>318.6</v>
+        <v>310.2</v>
       </c>
       <c r="C12" t="n">
-        <v>318.6</v>
+        <v>310.1</v>
       </c>
       <c r="D12" t="n">
-        <v>318.6</v>
+        <v>310.2</v>
       </c>
       <c r="E12" t="n">
-        <v>318.6</v>
+        <v>310.1</v>
       </c>
       <c r="F12" t="n">
-        <v>325</v>
+        <v>1184.3136</v>
       </c>
       <c r="G12" t="n">
-        <v>319.3800000000002</v>
+        <v>-10766.42297101</v>
       </c>
       <c r="H12" t="n">
-        <v>314.9116666666663</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,42 +818,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C13" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D13" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E13" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>319.5800000000002</v>
+        <v>-10768.42297101</v>
       </c>
       <c r="H13" t="n">
-        <v>315.0633333333329</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>310.1</v>
       </c>
       <c r="K13" t="n">
-        <v>318.6</v>
+        <v>310.1</v>
       </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,40 +857,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318.7</v>
+        <v>310</v>
       </c>
       <c r="C14" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="D14" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="E14" t="n">
-        <v>318.7</v>
+        <v>310</v>
       </c>
       <c r="F14" t="n">
-        <v>502</v>
+        <v>174.4677</v>
       </c>
       <c r="G14" t="n">
-        <v>319.7800000000003</v>
+        <v>-10593.95527101</v>
       </c>
       <c r="H14" t="n">
-        <v>315.2449999999997</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -996,40 +898,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="C15" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="D15" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="E15" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="F15" t="n">
-        <v>935.1607</v>
+        <v>195.0585</v>
       </c>
       <c r="G15" t="n">
-        <v>319.8133333333336</v>
+        <v>-10593.95527101</v>
       </c>
       <c r="H15" t="n">
-        <v>315.443333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,40 +939,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>321</v>
+        <v>310.2</v>
       </c>
       <c r="C16" t="n">
-        <v>321</v>
+        <v>315.5</v>
       </c>
       <c r="D16" t="n">
-        <v>321</v>
+        <v>315.5</v>
       </c>
       <c r="E16" t="n">
-        <v>321</v>
+        <v>310.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="G16" t="n">
-        <v>320.0133333333335</v>
+        <v>-10198.95527101</v>
       </c>
       <c r="H16" t="n">
-        <v>315.6416666666664</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1080,40 +980,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="C17" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="D17" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="E17" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="F17" t="n">
-        <v>1101.3676</v>
+        <v>158.2174</v>
       </c>
       <c r="G17" t="n">
-        <v>320.1600000000002</v>
+        <v>-10357.17267101</v>
       </c>
       <c r="H17" t="n">
-        <v>315.8116666666664</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,40 +1021,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="C18" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="D18" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="E18" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>320.3133333333336</v>
+        <v>-10359.17267101</v>
       </c>
       <c r="H18" t="n">
-        <v>315.9799999999997</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,40 +1062,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="C19" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="D19" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="E19" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="F19" t="n">
-        <v>354.0679</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>320.3466666666669</v>
+        <v>-10361.17267101</v>
       </c>
       <c r="H19" t="n">
-        <v>316.1399999999996</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1206,40 +1103,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>320</v>
+        <v>315.6</v>
       </c>
       <c r="C20" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D20" t="n">
-        <v>320</v>
+        <v>315.6</v>
       </c>
       <c r="E20" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F20" t="n">
-        <v>187.0561</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>320.3800000000002</v>
+        <v>-10367.17267101</v>
       </c>
       <c r="H20" t="n">
-        <v>316.2399999999997</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,40 +1146,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="C21" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="D21" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="E21" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1687.633</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>320.3333333333336</v>
+        <v>-10365.17267101</v>
       </c>
       <c r="H21" t="n">
-        <v>316.308333333333</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>314</v>
+      </c>
+      <c r="K21" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,40 +1189,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="C22" t="n">
-        <v>320</v>
+        <v>315.7</v>
       </c>
       <c r="D22" t="n">
-        <v>320</v>
+        <v>315.7</v>
       </c>
       <c r="E22" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>320.3466666666669</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H22" t="n">
-        <v>316.408333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>314.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,40 +1232,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="C23" t="n">
-        <v>322</v>
+        <v>315.7</v>
       </c>
       <c r="D23" t="n">
-        <v>322</v>
+        <v>315.7</v>
       </c>
       <c r="E23" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="F23" t="n">
-        <v>724.5956</v>
+        <v>1409.2746</v>
       </c>
       <c r="G23" t="n">
-        <v>320.4933333333336</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H23" t="n">
-        <v>316.5416666666663</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,40 +1273,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="C24" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="D24" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>67.7466</v>
       </c>
       <c r="G24" t="n">
-        <v>320.4933333333336</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H24" t="n">
-        <v>316.6816666666663</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1416,40 +1314,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="C25" t="n">
-        <v>322.9</v>
+        <v>315.7</v>
       </c>
       <c r="D25" t="n">
-        <v>322.9</v>
+        <v>315.7</v>
       </c>
       <c r="E25" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="F25" t="n">
-        <v>17876.7481</v>
+        <v>413.0467</v>
       </c>
       <c r="G25" t="n">
-        <v>320.5333333333335</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H25" t="n">
-        <v>316.8749999999997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,40 +1355,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>319.3</v>
+        <v>315.8</v>
       </c>
       <c r="C26" t="n">
-        <v>319.3</v>
+        <v>317</v>
       </c>
       <c r="D26" t="n">
-        <v>319.3</v>
+        <v>317</v>
       </c>
       <c r="E26" t="n">
-        <v>319.3</v>
+        <v>315.8</v>
       </c>
       <c r="F26" t="n">
-        <v>6.6955</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>320.4866666666668</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H26" t="n">
-        <v>316.9166666666663</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,40 +1396,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C27" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D27" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E27" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>809.9712</v>
       </c>
       <c r="G27" t="n">
-        <v>320.7800000000001</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H27" t="n">
-        <v>317.0199999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,40 +1437,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C28" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="D28" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="E28" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F28" t="n">
-        <v>2067.08173815</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>321.2200000000002</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H28" t="n">
-        <v>317.1349999999996</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>317</v>
+      </c>
+      <c r="K28" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,40 +1480,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="C29" t="n">
-        <v>327.3</v>
+        <v>319.5</v>
       </c>
       <c r="D29" t="n">
-        <v>327.3</v>
+        <v>319.5</v>
       </c>
       <c r="E29" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="F29" t="n">
-        <v>5868.005</v>
+        <v>950</v>
       </c>
       <c r="G29" t="n">
-        <v>321.7066666666669</v>
+        <v>-9367.172671009996</v>
       </c>
       <c r="H29" t="n">
-        <v>317.3399999999996</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,40 +1521,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>327.3</v>
+        <v>318</v>
       </c>
       <c r="C30" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D30" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="E30" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F30" t="n">
-        <v>1554.43864955</v>
+        <v>4412.4206</v>
       </c>
       <c r="G30" t="n">
-        <v>321.9066666666669</v>
+        <v>-13779.59327101</v>
       </c>
       <c r="H30" t="n">
-        <v>317.398333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,40 +1562,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="C31" t="n">
-        <v>327.3</v>
+        <v>318.8</v>
       </c>
       <c r="D31" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="E31" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F31" t="n">
-        <v>103.7</v>
+        <v>4159.3615</v>
       </c>
       <c r="G31" t="n">
-        <v>322.3266666666669</v>
+        <v>-9620.231771009996</v>
       </c>
       <c r="H31" t="n">
-        <v>317.5866666666663</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,40 +1603,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>327.3</v>
+        <v>318.8</v>
       </c>
       <c r="C32" t="n">
-        <v>323</v>
+        <v>318.7</v>
       </c>
       <c r="D32" t="n">
-        <v>329</v>
+        <v>318.8</v>
       </c>
       <c r="E32" t="n">
-        <v>323</v>
+        <v>318.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1647.89229221</v>
+        <v>635.7</v>
       </c>
       <c r="G32" t="n">
-        <v>322.4600000000002</v>
+        <v>-10255.93177101</v>
       </c>
       <c r="H32" t="n">
-        <v>317.7199999999996</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,40 +1644,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>329</v>
+        <v>319.5</v>
       </c>
       <c r="C33" t="n">
-        <v>329</v>
+        <v>319.5</v>
       </c>
       <c r="D33" t="n">
-        <v>329.5</v>
+        <v>319.5</v>
       </c>
       <c r="E33" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="F33" t="n">
-        <v>561.00132009</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>322.9933333333336</v>
+        <v>-10253.93177101</v>
       </c>
       <c r="H33" t="n">
-        <v>317.953333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,40 +1685,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="C34" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="D34" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="E34" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="F34" t="n">
-        <v>129.7803</v>
+        <v>12.333</v>
       </c>
       <c r="G34" t="n">
-        <v>323.1266666666669</v>
+        <v>-10253.93177101</v>
       </c>
       <c r="H34" t="n">
-        <v>318.1066666666663</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,40 +1726,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>320.5</v>
+        <v>319.5</v>
       </c>
       <c r="C35" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="D35" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="E35" t="n">
-        <v>320.5</v>
+        <v>319.5</v>
       </c>
       <c r="F35" t="n">
-        <v>447.7847</v>
+        <v>973.9571999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>323.6600000000002</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H35" t="n">
-        <v>318.4016666666664</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,40 +1767,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>325</v>
+        <v>319.6</v>
       </c>
       <c r="C36" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="D36" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="E36" t="n">
-        <v>325</v>
+        <v>319.6</v>
       </c>
       <c r="F36" t="n">
-        <v>6.4878</v>
+        <v>1383.0953</v>
       </c>
       <c r="G36" t="n">
-        <v>324.2533333333335</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H36" t="n">
-        <v>318.613333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,76 +1808,80 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="C37" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="D37" t="n">
-        <v>330</v>
+        <v>319.8</v>
       </c>
       <c r="E37" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="F37" t="n">
-        <v>694.1138</v>
+        <v>920.1068</v>
       </c>
       <c r="G37" t="n">
-        <v>324.3333333333335</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H37" t="n">
-        <v>318.7149999999997</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="C38" t="n">
-        <v>321.2</v>
+        <v>322.4</v>
       </c>
       <c r="D38" t="n">
-        <v>321.2</v>
+        <v>322.4</v>
       </c>
       <c r="E38" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="F38" t="n">
-        <v>488</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="n">
-        <v>324.2800000000001</v>
+        <v>-5279.974571009996</v>
       </c>
       <c r="H38" t="n">
-        <v>318.8533333333331</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,36 +1890,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C39" t="n">
-        <v>320.6</v>
+        <v>322.3</v>
       </c>
       <c r="D39" t="n">
-        <v>322</v>
+        <v>322.3</v>
       </c>
       <c r="E39" t="n">
-        <v>320.6</v>
+        <v>317</v>
       </c>
       <c r="F39" t="n">
-        <v>3487.9089</v>
+        <v>5002.8929</v>
       </c>
       <c r="G39" t="n">
-        <v>324.1600000000002</v>
+        <v>-10282.86747100999</v>
       </c>
       <c r="H39" t="n">
-        <v>318.9966666666663</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,36 +1931,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>320.7</v>
+        <v>320</v>
       </c>
       <c r="C40" t="n">
-        <v>330.9</v>
+        <v>320</v>
       </c>
       <c r="D40" t="n">
-        <v>330.9</v>
+        <v>320</v>
       </c>
       <c r="E40" t="n">
-        <v>320.7</v>
+        <v>320</v>
       </c>
       <c r="F40" t="n">
-        <v>64.363</v>
+        <v>75.23390000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>324.6933333333336</v>
+        <v>-10358.10137100999</v>
       </c>
       <c r="H40" t="n">
-        <v>319.3149999999997</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,36 +1972,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>321</v>
+        <v>318.6</v>
       </c>
       <c r="C41" t="n">
-        <v>320.6</v>
+        <v>318.6</v>
       </c>
       <c r="D41" t="n">
-        <v>330.9</v>
+        <v>318.6</v>
       </c>
       <c r="E41" t="n">
-        <v>320.6</v>
+        <v>318.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1320.9803783</v>
+        <v>325</v>
       </c>
       <c r="G41" t="n">
-        <v>324.7800000000003</v>
+        <v>-10683.10137100999</v>
       </c>
       <c r="H41" t="n">
-        <v>319.4749999999997</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,36 +2013,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C42" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D42" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E42" t="n">
-        <v>323.3</v>
+        <v>320</v>
       </c>
       <c r="F42" t="n">
-        <v>746.5</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>325.1800000000002</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H42" t="n">
-        <v>319.788333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,36 +2054,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>322.3</v>
+        <v>318.7</v>
       </c>
       <c r="C43" t="n">
-        <v>322.3</v>
+        <v>320</v>
       </c>
       <c r="D43" t="n">
-        <v>322.3</v>
+        <v>320</v>
       </c>
       <c r="E43" t="n">
-        <v>322.3</v>
+        <v>318.7</v>
       </c>
       <c r="F43" t="n">
-        <v>1210</v>
+        <v>502</v>
       </c>
       <c r="G43" t="n">
-        <v>324.8933333333335</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H43" t="n">
-        <v>319.9916666666664</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,36 +2095,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>328.9</v>
+        <v>320</v>
       </c>
       <c r="C44" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D44" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E44" t="n">
-        <v>328.9</v>
+        <v>320</v>
       </c>
       <c r="F44" t="n">
-        <v>35</v>
+        <v>935.1607</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0066666666669</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H44" t="n">
-        <v>320.3083333333331</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,36 +2136,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="C45" t="n">
-        <v>327.9</v>
+        <v>321</v>
       </c>
       <c r="D45" t="n">
-        <v>327.9</v>
+        <v>321</v>
       </c>
       <c r="E45" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="F45" t="n">
-        <v>171.0278</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>325.3333333333335</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H45" t="n">
-        <v>320.6049999999997</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,36 +2177,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C46" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="D46" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E46" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="F46" t="n">
-        <v>609.2061</v>
+        <v>1101.3676</v>
       </c>
       <c r="G46" t="n">
-        <v>325.0000000000002</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H46" t="n">
-        <v>320.8083333333331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,36 +2218,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>321.1</v>
+        <v>321</v>
       </c>
       <c r="C47" t="n">
-        <v>320.6</v>
+        <v>321</v>
       </c>
       <c r="D47" t="n">
-        <v>321.1</v>
+        <v>321</v>
       </c>
       <c r="E47" t="n">
-        <v>320.6</v>
+        <v>321</v>
       </c>
       <c r="F47" t="n">
-        <v>968.9694</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>324.8400000000002</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H47" t="n">
-        <v>320.8933333333331</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,36 +2259,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>319.1</v>
+        <v>320</v>
       </c>
       <c r="C48" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D48" t="n">
-        <v>319.1</v>
+        <v>320</v>
       </c>
       <c r="E48" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F48" t="n">
-        <v>3043</v>
+        <v>354.0679</v>
       </c>
       <c r="G48" t="n">
-        <v>324.1066666666669</v>
+        <v>-11033.16927100999</v>
       </c>
       <c r="H48" t="n">
-        <v>320.953333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2378,36 +2300,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C49" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D49" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E49" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>187.0561</v>
       </c>
       <c r="G49" t="n">
-        <v>323.8400000000002</v>
+        <v>-11033.16927100999</v>
       </c>
       <c r="H49" t="n">
-        <v>321.0149999999997</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,36 +2341,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="C50" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="D50" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="E50" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1687.633</v>
       </c>
       <c r="G50" t="n">
-        <v>323.4200000000002</v>
+        <v>-12720.80227100999</v>
       </c>
       <c r="H50" t="n">
-        <v>321.1399999999997</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2454,36 +2382,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>321.8</v>
+        <v>320</v>
       </c>
       <c r="C51" t="n">
-        <v>325.9</v>
+        <v>320</v>
       </c>
       <c r="D51" t="n">
-        <v>325.9</v>
+        <v>320</v>
       </c>
       <c r="E51" t="n">
-        <v>321.8</v>
+        <v>320</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>323.2800000000001</v>
+        <v>-12718.80227100999</v>
       </c>
       <c r="H51" t="n">
-        <v>321.3383333333331</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,36 +2423,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>321.7</v>
+        <v>320</v>
       </c>
       <c r="C52" t="n">
-        <v>322.2</v>
+        <v>322</v>
       </c>
       <c r="D52" t="n">
-        <v>322.2</v>
+        <v>322</v>
       </c>
       <c r="E52" t="n">
-        <v>321.7</v>
+        <v>320</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>724.5956</v>
       </c>
       <c r="G52" t="n">
-        <v>323.3466666666669</v>
+        <v>-11994.20667100999</v>
       </c>
       <c r="H52" t="n">
-        <v>321.4633333333331</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,36 +2464,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>322.5</v>
+        <v>322.4</v>
       </c>
       <c r="C53" t="n">
-        <v>318</v>
+        <v>322.4</v>
       </c>
       <c r="D53" t="n">
-        <v>322.5</v>
+        <v>322.4</v>
       </c>
       <c r="E53" t="n">
-        <v>318</v>
+        <v>322.4</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>323.1333333333335</v>
+        <v>-11992.20667100999</v>
       </c>
       <c r="H53" t="n">
-        <v>321.5016666666664</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,36 +2505,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>318.5</v>
+        <v>322.4</v>
       </c>
       <c r="C54" t="n">
-        <v>325.9</v>
+        <v>322.9</v>
       </c>
       <c r="D54" t="n">
-        <v>325.9</v>
+        <v>322.9</v>
       </c>
       <c r="E54" t="n">
-        <v>318.5</v>
+        <v>322.4</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>17876.7481</v>
       </c>
       <c r="G54" t="n">
-        <v>323.4866666666668</v>
+        <v>5884.541428990007</v>
       </c>
       <c r="H54" t="n">
-        <v>321.6716666666664</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>322.4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2606,36 +2548,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>318.5</v>
+        <v>319.3</v>
       </c>
       <c r="C55" t="n">
-        <v>322.8</v>
+        <v>319.3</v>
       </c>
       <c r="D55" t="n">
-        <v>322.8</v>
+        <v>319.3</v>
       </c>
       <c r="E55" t="n">
-        <v>318</v>
+        <v>319.3</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>6.6955</v>
       </c>
       <c r="G55" t="n">
-        <v>322.9466666666668</v>
+        <v>5877.845928990007</v>
       </c>
       <c r="H55" t="n">
-        <v>321.7899999999997</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,36 +2589,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C56" t="n">
-        <v>325.9</v>
+        <v>323</v>
       </c>
       <c r="D56" t="n">
-        <v>325.9</v>
+        <v>323</v>
       </c>
       <c r="E56" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>323.3000000000001</v>
+        <v>5879.845928990007</v>
       </c>
       <c r="H56" t="n">
-        <v>321.9599999999998</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>319.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,36 +2632,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>319.3</v>
+        <v>323</v>
       </c>
       <c r="C57" t="n">
-        <v>321.5</v>
+        <v>326.6</v>
       </c>
       <c r="D57" t="n">
-        <v>322.6</v>
+        <v>326.6</v>
       </c>
       <c r="E57" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>2067.08173815</v>
       </c>
       <c r="G57" t="n">
-        <v>322.8000000000001</v>
+        <v>7946.927667140008</v>
       </c>
       <c r="H57" t="n">
-        <v>322.0349999999997</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,36 +2673,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>321.5</v>
+        <v>326.6</v>
       </c>
       <c r="C58" t="n">
-        <v>319.3</v>
+        <v>327.3</v>
       </c>
       <c r="D58" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="E58" t="n">
-        <v>319.3</v>
+        <v>326.6</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>5868.005</v>
       </c>
       <c r="G58" t="n">
-        <v>322.6000000000001</v>
+        <v>13814.93266714001</v>
       </c>
       <c r="H58" t="n">
-        <v>322.073333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,36 +2714,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="C59" t="n">
-        <v>322.5</v>
+        <v>323</v>
       </c>
       <c r="D59" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="E59" t="n">
-        <v>322.5</v>
+        <v>323</v>
       </c>
       <c r="F59" t="n">
-        <v>48.3746</v>
+        <v>1554.43864955</v>
       </c>
       <c r="G59" t="n">
-        <v>322.1666666666668</v>
+        <v>12260.49401759001</v>
       </c>
       <c r="H59" t="n">
-        <v>322.1649999999997</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,36 +2755,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="C60" t="n">
-        <v>319.3</v>
+        <v>327.3</v>
       </c>
       <c r="D60" t="n">
-        <v>327</v>
+        <v>327.3</v>
       </c>
       <c r="E60" t="n">
-        <v>319.3</v>
+        <v>323</v>
       </c>
       <c r="F60" t="n">
-        <v>6.7536</v>
+        <v>103.7</v>
       </c>
       <c r="G60" t="n">
-        <v>321.5933333333335</v>
+        <v>12364.19401759001</v>
       </c>
       <c r="H60" t="n">
-        <v>322.1616666666663</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,36 +2796,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>327</v>
+        <v>327.3</v>
       </c>
       <c r="C61" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D61" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E61" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1647.89229221</v>
       </c>
       <c r="G61" t="n">
-        <v>321.9066666666668</v>
+        <v>10716.30172538001</v>
       </c>
       <c r="H61" t="n">
-        <v>322.3116666666664</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,36 +2837,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>322.1</v>
+        <v>329</v>
       </c>
       <c r="C62" t="n">
-        <v>322.1</v>
+        <v>329</v>
       </c>
       <c r="D62" t="n">
-        <v>322.1</v>
+        <v>329.5</v>
       </c>
       <c r="E62" t="n">
-        <v>322.1</v>
+        <v>322</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>561.00132009</v>
       </c>
       <c r="G62" t="n">
-        <v>322.0066666666668</v>
+        <v>11277.30304547001</v>
       </c>
       <c r="H62" t="n">
-        <v>322.3666666666664</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,36 +2878,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="C63" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="D63" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="E63" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>129.7803</v>
       </c>
       <c r="G63" t="n">
-        <v>322.0933333333335</v>
+        <v>11147.52274547001</v>
       </c>
       <c r="H63" t="n">
-        <v>322.3766666666663</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,36 +2919,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>327</v>
+        <v>320.5</v>
       </c>
       <c r="C64" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D64" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E64" t="n">
-        <v>322.8</v>
+        <v>320.5</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>447.7847</v>
       </c>
       <c r="G64" t="n">
-        <v>322.6933333333335</v>
+        <v>11595.30744547001</v>
       </c>
       <c r="H64" t="n">
-        <v>322.5016666666663</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,36 +2960,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C65" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D65" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E65" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>6.4878</v>
       </c>
       <c r="G65" t="n">
-        <v>322.8466666666669</v>
+        <v>11595.30744547001</v>
       </c>
       <c r="H65" t="n">
-        <v>322.5766666666663</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,36 +3001,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C66" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="D66" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E66" t="n">
-        <v>326</v>
+        <v>321.2</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>694.1138</v>
       </c>
       <c r="G66" t="n">
-        <v>322.9200000000002</v>
+        <v>10901.19364547001</v>
       </c>
       <c r="H66" t="n">
-        <v>322.6966666666664</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,36 +3042,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>324</v>
+        <v>321.2</v>
       </c>
       <c r="C67" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="D67" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="E67" t="n">
-        <v>324</v>
+        <v>321.2</v>
       </c>
       <c r="F67" t="n">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="G67" t="n">
-        <v>323.2400000000002</v>
+        <v>10901.19364547001</v>
       </c>
       <c r="H67" t="n">
-        <v>322.8166666666664</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,36 +3083,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>322.6</v>
+        <v>322</v>
       </c>
       <c r="C68" t="n">
-        <v>317.7</v>
+        <v>320.6</v>
       </c>
       <c r="D68" t="n">
-        <v>322.6</v>
+        <v>322</v>
       </c>
       <c r="E68" t="n">
-        <v>317.7</v>
+        <v>320.6</v>
       </c>
       <c r="F68" t="n">
-        <v>4507.3862</v>
+        <v>3487.9089</v>
       </c>
       <c r="G68" t="n">
-        <v>323.2200000000002</v>
+        <v>7413.28474547001</v>
       </c>
       <c r="H68" t="n">
-        <v>322.7816666666664</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,36 +3124,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>317.7</v>
+        <v>320.7</v>
       </c>
       <c r="C69" t="n">
-        <v>317</v>
+        <v>330.9</v>
       </c>
       <c r="D69" t="n">
-        <v>317.7</v>
+        <v>330.9</v>
       </c>
       <c r="E69" t="n">
-        <v>317</v>
+        <v>320.7</v>
       </c>
       <c r="F69" t="n">
-        <v>407.1065</v>
+        <v>64.363</v>
       </c>
       <c r="G69" t="n">
-        <v>322.6266666666669</v>
+        <v>7477.64774547001</v>
       </c>
       <c r="H69" t="n">
-        <v>322.6916666666664</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,37 +3165,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C70" t="n">
-        <v>316</v>
+        <v>320.6</v>
       </c>
       <c r="D70" t="n">
-        <v>316</v>
+        <v>330.9</v>
       </c>
       <c r="E70" t="n">
-        <v>316</v>
+        <v>320.6</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>1320.9803783</v>
       </c>
       <c r="G70" t="n">
-        <v>322.1733333333335</v>
+        <v>6156.66736717001</v>
       </c>
       <c r="H70" t="n">
-        <v>322.5866666666664</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1.028860045146727</v>
       </c>
     </row>
     <row r="71">
@@ -3214,36 +3206,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>316.9</v>
+        <v>329</v>
       </c>
       <c r="C71" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D71" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E71" t="n">
-        <v>316.9</v>
+        <v>323.3</v>
       </c>
       <c r="F71" t="n">
-        <v>1161.0338</v>
+        <v>746.5</v>
       </c>
       <c r="G71" t="n">
-        <v>321.5800000000002</v>
+        <v>6903.16736717001</v>
       </c>
       <c r="H71" t="n">
-        <v>322.5366666666663</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,36 +3241,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="C72" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="D72" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="E72" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1210</v>
       </c>
       <c r="G72" t="n">
-        <v>321.4733333333335</v>
+        <v>5693.16736717001</v>
       </c>
       <c r="H72" t="n">
-        <v>322.5583333333331</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,36 +3276,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>319.9</v>
+        <v>328.9</v>
       </c>
       <c r="C73" t="n">
-        <v>319.9</v>
+        <v>329</v>
       </c>
       <c r="D73" t="n">
-        <v>319.9</v>
+        <v>329</v>
       </c>
       <c r="E73" t="n">
-        <v>319.9</v>
+        <v>328.9</v>
       </c>
       <c r="F73" t="n">
-        <v>595.7</v>
+        <v>35</v>
       </c>
       <c r="G73" t="n">
-        <v>321.5133333333335</v>
+        <v>5728.16736717001</v>
       </c>
       <c r="H73" t="n">
-        <v>322.5566666666664</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,36 +3311,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="C74" t="n">
-        <v>319.9</v>
+        <v>327.9</v>
       </c>
       <c r="D74" t="n">
-        <v>319.9</v>
+        <v>327.9</v>
       </c>
       <c r="E74" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="F74" t="n">
-        <v>155.99</v>
+        <v>171.0278</v>
       </c>
       <c r="G74" t="n">
-        <v>321.3400000000001</v>
+        <v>5557.13956717001</v>
       </c>
       <c r="H74" t="n">
-        <v>322.5549999999998</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3366,36 +3346,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>318.1</v>
+        <v>328</v>
       </c>
       <c r="C75" t="n">
-        <v>316.3</v>
+        <v>322.3</v>
       </c>
       <c r="D75" t="n">
-        <v>318.1</v>
+        <v>328</v>
       </c>
       <c r="E75" t="n">
-        <v>316.3</v>
+        <v>322.3</v>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>609.2061</v>
       </c>
       <c r="G75" t="n">
-        <v>321.1400000000002</v>
+        <v>4947.93346717001</v>
       </c>
       <c r="H75" t="n">
-        <v>322.4933333333331</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,36 +3381,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>317.2</v>
+        <v>321.1</v>
       </c>
       <c r="C76" t="n">
-        <v>317.2</v>
+        <v>320.6</v>
       </c>
       <c r="D76" t="n">
-        <v>317.2</v>
+        <v>321.1</v>
       </c>
       <c r="E76" t="n">
-        <v>317.2</v>
+        <v>320.6</v>
       </c>
       <c r="F76" t="n">
-        <v>278.4531</v>
+        <v>968.9694</v>
       </c>
       <c r="G76" t="n">
-        <v>320.4866666666668</v>
+        <v>3978.96406717001</v>
       </c>
       <c r="H76" t="n">
-        <v>322.4299999999998</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,36 +3416,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>318.1</v>
+        <v>319.1</v>
       </c>
       <c r="C77" t="n">
-        <v>316.2</v>
+        <v>318</v>
       </c>
       <c r="D77" t="n">
-        <v>318.1</v>
+        <v>319.1</v>
       </c>
       <c r="E77" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F77" t="n">
-        <v>1086.1263</v>
+        <v>3043</v>
       </c>
       <c r="G77" t="n">
-        <v>320.0933333333334</v>
+        <v>935.9640671700099</v>
       </c>
       <c r="H77" t="n">
-        <v>322.3499999999998</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,36 +3451,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>318.8</v>
+        <v>319</v>
       </c>
       <c r="C78" t="n">
-        <v>318.8</v>
+        <v>318</v>
       </c>
       <c r="D78" t="n">
-        <v>318.8</v>
+        <v>319</v>
       </c>
       <c r="E78" t="n">
-        <v>318.8</v>
+        <v>318</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>320.0600000000001</v>
+        <v>935.9640671700099</v>
       </c>
       <c r="H78" t="n">
-        <v>322.3133333333332</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,36 +3486,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>317.2</v>
+        <v>321.7</v>
       </c>
       <c r="C79" t="n">
-        <v>317.1</v>
+        <v>321.7</v>
       </c>
       <c r="D79" t="n">
-        <v>317.2</v>
+        <v>321.7</v>
       </c>
       <c r="E79" t="n">
-        <v>317.1</v>
+        <v>321.7</v>
       </c>
       <c r="F79" t="n">
-        <v>134.0168</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>319.4000000000001</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H79" t="n">
-        <v>322.2649999999998</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,36 +3521,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>318.1</v>
+        <v>321.8</v>
       </c>
       <c r="C80" t="n">
-        <v>315.4</v>
+        <v>325.9</v>
       </c>
       <c r="D80" t="n">
-        <v>318.1</v>
+        <v>325.9</v>
       </c>
       <c r="E80" t="n">
-        <v>315.4</v>
+        <v>321.8</v>
       </c>
       <c r="F80" t="n">
-        <v>382</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>318.8266666666668</v>
+        <v>942.9640671700099</v>
       </c>
       <c r="H80" t="n">
-        <v>322.1883333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,36 +3556,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>317</v>
+        <v>321.7</v>
       </c>
       <c r="C81" t="n">
-        <v>318.2</v>
+        <v>322.2</v>
       </c>
       <c r="D81" t="n">
-        <v>318.2</v>
+        <v>322.2</v>
       </c>
       <c r="E81" t="n">
-        <v>315.5</v>
+        <v>321.7</v>
       </c>
       <c r="F81" t="n">
-        <v>1151.9672</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>318.2400000000001</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H81" t="n">
-        <v>322.1733333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,36 +3591,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>315.6</v>
+        <v>322.5</v>
       </c>
       <c r="C82" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="D82" t="n">
-        <v>315.6</v>
+        <v>322.5</v>
       </c>
       <c r="E82" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="F82" t="n">
-        <v>2793</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>317.4733333333334</v>
+        <v>934.9640671700099</v>
       </c>
       <c r="H82" t="n">
-        <v>322.0983333333332</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,36 +3626,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>316.9</v>
+        <v>318.5</v>
       </c>
       <c r="C83" t="n">
-        <v>315.5</v>
+        <v>325.9</v>
       </c>
       <c r="D83" t="n">
-        <v>316.9</v>
+        <v>325.9</v>
       </c>
       <c r="E83" t="n">
-        <v>315.5</v>
+        <v>318.5</v>
       </c>
       <c r="F83" t="n">
-        <v>98.82340000000001</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>317.3266666666668</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H83" t="n">
-        <v>321.9899999999998</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,36 +3661,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>315.5</v>
+        <v>318.5</v>
       </c>
       <c r="C84" t="n">
-        <v>315.5</v>
+        <v>322.8</v>
       </c>
       <c r="D84" t="n">
-        <v>315.5</v>
+        <v>322.8</v>
       </c>
       <c r="E84" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="F84" t="n">
-        <v>101.9999</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>317.2266666666667</v>
+        <v>934.9640671700099</v>
       </c>
       <c r="H84" t="n">
-        <v>321.8749999999998</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,36 +3696,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>315.3</v>
+        <v>318</v>
       </c>
       <c r="C85" t="n">
-        <v>315.2</v>
+        <v>325.9</v>
       </c>
       <c r="D85" t="n">
-        <v>315.3</v>
+        <v>325.9</v>
       </c>
       <c r="E85" t="n">
-        <v>315.2</v>
+        <v>318</v>
       </c>
       <c r="F85" t="n">
-        <v>667.9999</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>317.1733333333334</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H85" t="n">
-        <v>321.7466666666665</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,36 +3731,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="C86" t="n">
-        <v>315.2</v>
+        <v>321.5</v>
       </c>
       <c r="D86" t="n">
-        <v>315.2</v>
+        <v>322.6</v>
       </c>
       <c r="E86" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F86" t="n">
-        <v>199.9999</v>
+        <v>9</v>
       </c>
       <c r="G86" t="n">
-        <v>317.0533333333334</v>
+        <v>929.9640671700099</v>
       </c>
       <c r="H86" t="n">
-        <v>321.6783333333332</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,36 +3766,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>315.2</v>
+        <v>321.5</v>
       </c>
       <c r="C87" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="D87" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="E87" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F87" t="n">
-        <v>2090.1579</v>
+        <v>16</v>
       </c>
       <c r="G87" t="n">
-        <v>316.7400000000001</v>
+        <v>913.9640671700099</v>
       </c>
       <c r="H87" t="n">
-        <v>321.5483333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,36 +3801,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="C88" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="D88" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="E88" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="F88" t="n">
-        <v>1487.3542</v>
+        <v>48.3746</v>
       </c>
       <c r="G88" t="n">
-        <v>316.4266666666668</v>
+        <v>962.3386671700099</v>
       </c>
       <c r="H88" t="n">
-        <v>321.3583333333332</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,36 +3836,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="C89" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="D89" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="E89" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>6.7536</v>
       </c>
       <c r="G89" t="n">
-        <v>316.1133333333335</v>
+        <v>955.5850671700099</v>
       </c>
       <c r="H89" t="n">
-        <v>321.1566666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3936,36 +3871,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="C90" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="D90" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="E90" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="F90" t="n">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>316.0400000000001</v>
+        <v>957.5850671700099</v>
       </c>
       <c r="H90" t="n">
-        <v>321.0266666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,36 +3906,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>317</v>
+        <v>322.1</v>
       </c>
       <c r="C91" t="n">
-        <v>315.2</v>
+        <v>322.1</v>
       </c>
       <c r="D91" t="n">
-        <v>317</v>
+        <v>322.1</v>
       </c>
       <c r="E91" t="n">
-        <v>315.2</v>
+        <v>322.1</v>
       </c>
       <c r="F91" t="n">
-        <v>400.7239</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>315.9066666666668</v>
+        <v>955.5850671700099</v>
       </c>
       <c r="H91" t="n">
-        <v>320.8249999999999</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,36 +3941,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>317.1</v>
+        <v>319.3</v>
       </c>
       <c r="C92" t="n">
-        <v>317.2</v>
+        <v>319.3</v>
       </c>
       <c r="D92" t="n">
-        <v>317.2</v>
+        <v>319.3</v>
       </c>
       <c r="E92" t="n">
-        <v>317.1</v>
+        <v>319.3</v>
       </c>
       <c r="F92" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>315.9733333333334</v>
+        <v>953.5850671700099</v>
       </c>
       <c r="H92" t="n">
-        <v>320.7283333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,36 +3976,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>317.2</v>
+        <v>327</v>
       </c>
       <c r="C93" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="D93" t="n">
-        <v>317.2</v>
+        <v>327</v>
       </c>
       <c r="E93" t="n">
-        <v>315.2</v>
+        <v>322.8</v>
       </c>
       <c r="F93" t="n">
-        <v>115.64</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>315.7333333333334</v>
+        <v>961.5850671700099</v>
       </c>
       <c r="H93" t="n">
-        <v>320.4983333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +4011,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>315.2</v>
+        <v>324</v>
       </c>
       <c r="C94" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D94" t="n">
-        <v>315.2</v>
+        <v>324</v>
       </c>
       <c r="E94" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F94" t="n">
-        <v>10772.0306</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>315.5933333333334</v>
+        <v>959.5850671700099</v>
       </c>
       <c r="H94" t="n">
-        <v>320.3816666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +4046,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C95" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D95" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E95" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F95" t="n">
-        <v>116.1334</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>315.5666666666667</v>
+        <v>963.5850671700099</v>
       </c>
       <c r="H95" t="n">
-        <v>320.165</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +4081,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C96" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D96" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E96" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F96" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G96" t="n">
-        <v>315.3533333333334</v>
+        <v>963.5850671700099</v>
       </c>
       <c r="H96" t="n">
-        <v>319.9483333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +4116,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>315</v>
+        <v>322.6</v>
       </c>
       <c r="C97" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="D97" t="n">
-        <v>315</v>
+        <v>322.6</v>
       </c>
       <c r="E97" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="F97" t="n">
-        <v>124</v>
+        <v>4507.3862</v>
       </c>
       <c r="G97" t="n">
-        <v>315.3200000000001</v>
+        <v>-3543.80113282999</v>
       </c>
       <c r="H97" t="n">
-        <v>319.845</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +4151,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="C98" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D98" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="E98" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>407.1065</v>
       </c>
       <c r="G98" t="n">
-        <v>315.2866666666667</v>
+        <v>-3950.90763282999</v>
       </c>
       <c r="H98" t="n">
-        <v>319.7416666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +4186,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C99" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D99" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E99" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F99" t="n">
-        <v>1047.8131</v>
+        <v>14</v>
       </c>
       <c r="G99" t="n">
-        <v>315.2533333333334</v>
+        <v>-3964.90763282999</v>
       </c>
       <c r="H99" t="n">
-        <v>319.6483333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +4221,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>314.6</v>
+        <v>316.9</v>
       </c>
       <c r="C100" t="n">
-        <v>314.2</v>
+        <v>317</v>
       </c>
       <c r="D100" t="n">
-        <v>314.6</v>
+        <v>317</v>
       </c>
       <c r="E100" t="n">
-        <v>314.2</v>
+        <v>316.9</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>1161.0338</v>
       </c>
       <c r="G100" t="n">
-        <v>315.1866666666667</v>
+        <v>-2803.87383282999</v>
       </c>
       <c r="H100" t="n">
-        <v>319.3699999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +4256,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>314.1</v>
+        <v>319.9</v>
       </c>
       <c r="C101" t="n">
-        <v>311.4</v>
+        <v>319.9</v>
       </c>
       <c r="D101" t="n">
-        <v>314.1</v>
+        <v>319.9</v>
       </c>
       <c r="E101" t="n">
-        <v>311.4</v>
+        <v>319.9</v>
       </c>
       <c r="F101" t="n">
-        <v>143.5545</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>314.9333333333334</v>
+        <v>-2801.87383282999</v>
       </c>
       <c r="H101" t="n">
-        <v>319.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4291,1078 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>312</v>
+        <v>319.9</v>
       </c>
       <c r="C102" t="n">
-        <v>308.7</v>
+        <v>319.9</v>
       </c>
       <c r="D102" t="n">
-        <v>312</v>
+        <v>319.9</v>
       </c>
       <c r="E102" t="n">
-        <v>308.7</v>
+        <v>319.9</v>
       </c>
       <c r="F102" t="n">
-        <v>16947.7395</v>
+        <v>595.7</v>
       </c>
       <c r="G102" t="n">
-        <v>314.5000000000001</v>
+        <v>-2801.87383282999</v>
       </c>
       <c r="H102" t="n">
-        <v>318.8783333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>155.99</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2801.87383282999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>40</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2841.87383282999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>278.4531</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2563.420732829989</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>316.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>316</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1086.1263</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-3649.547032829989</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3647.547032829989</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>134.0168</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3781.563832829989</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>382</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-4163.563832829989</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>317</v>
+      </c>
+      <c r="C110" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1151.9672</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3011.596632829989</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2793</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>98.82340000000001</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>101.9999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>667.9999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>199.9999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2090.1579</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1487.3542</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>196</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>317</v>
+      </c>
+      <c r="C120" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>317</v>
+      </c>
+      <c r="E120" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>400.7239</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>38</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-6434.596532829989</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>115.64</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-6550.236532829989</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>315</v>
+      </c>
+      <c r="D123" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>315</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10772.0306</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>315</v>
+      </c>
+      <c r="C124" t="n">
+        <v>315</v>
+      </c>
+      <c r="D124" t="n">
+        <v>315</v>
+      </c>
+      <c r="E124" t="n">
+        <v>315</v>
+      </c>
+      <c r="F124" t="n">
+        <v>116.1334</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>315</v>
+      </c>
+      <c r="C125" t="n">
+        <v>315</v>
+      </c>
+      <c r="D125" t="n">
+        <v>315</v>
+      </c>
+      <c r="E125" t="n">
+        <v>315</v>
+      </c>
+      <c r="F125" t="n">
+        <v>97</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>315</v>
+      </c>
+      <c r="C126" t="n">
+        <v>315</v>
+      </c>
+      <c r="D126" t="n">
+        <v>315</v>
+      </c>
+      <c r="E126" t="n">
+        <v>315</v>
+      </c>
+      <c r="F126" t="n">
+        <v>124</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>315</v>
+      </c>
+      <c r="C127" t="n">
+        <v>315</v>
+      </c>
+      <c r="D127" t="n">
+        <v>315</v>
+      </c>
+      <c r="E127" t="n">
+        <v>315</v>
+      </c>
+      <c r="F127" t="n">
+        <v>200</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>315</v>
+      </c>
+      <c r="C128" t="n">
+        <v>315</v>
+      </c>
+      <c r="D128" t="n">
+        <v>315</v>
+      </c>
+      <c r="E128" t="n">
+        <v>315</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1047.8131</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-17332.26713282999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>143.5545</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-17475.82163282999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>312</v>
+      </c>
+      <c r="C131" t="n">
+        <v>308.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>312</v>
+      </c>
+      <c r="E131" t="n">
+        <v>308.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16947.7395</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-34423.56113282999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,6 +867,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,6 +909,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,6 +951,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -974,6 +993,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1015,6 +1035,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1056,6 +1077,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1097,6 +1119,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,6 +1163,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,6 +1207,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,6 +1251,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,6 +1293,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,6 +1335,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,6 +1377,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,6 +1419,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1431,6 +1461,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,6 +1505,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1515,6 +1547,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1556,6 +1589,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1597,6 +1631,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,6 +1673,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1679,6 +1715,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,6 +1757,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1761,6 +1799,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,6 +1841,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1843,6 +1883,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1884,6 +1925,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1925,6 +1967,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1966,6 +2009,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2007,6 +2051,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2048,6 +2093,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2089,6 +2135,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2130,6 +2177,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2171,6 +2219,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2212,6 +2261,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2253,6 +2303,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2294,6 +2345,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2335,6 +2387,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2376,6 +2429,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2417,6 +2471,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2458,6 +2513,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2499,6 +2555,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,6 +2599,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2583,6 +2641,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2626,6 +2685,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2667,6 +2727,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2708,6 +2769,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2749,6 +2811,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2790,6 +2853,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2831,6 +2895,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2872,6 +2937,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2899,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -2907,11 +2973,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>1.033374717832957</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.01741935483871</v>
       </c>
     </row>
     <row r="64">
@@ -2943,17 +3012,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2984,17 +3048,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,20 +3081,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3063,20 +3117,15 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3104,20 +3153,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3145,20 +3189,15 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3189,17 +3228,12 @@
         <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1.028860045146727</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3235,6 +3269,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3270,6 +3305,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3305,6 +3341,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3340,6 +3377,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3375,6 +3413,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3402,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3410,6 +3449,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3437,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3445,6 +3485,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3480,6 +3521,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3515,6 +3557,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3550,6 +3593,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3585,6 +3629,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3620,6 +3665,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3655,6 +3701,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3690,6 +3737,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3725,6 +3773,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,6 +3809,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3795,6 +3845,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3830,6 +3881,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3865,6 +3917,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3900,6 +3953,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3935,6 +3989,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3970,6 +4025,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4005,6 +4061,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4040,6 +4097,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4075,6 +4133,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4110,6 +4169,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4137,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4145,6 +4205,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4180,6 +4241,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4215,6 +4277,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,6 +4313,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4285,6 +4349,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4320,6 +4385,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4355,6 +4421,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4390,6 +4457,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4425,6 +4493,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4460,6 +4529,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4495,6 +4565,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4530,6 +4601,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4565,6 +4637,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4600,6 +4673,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4635,6 +4709,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4670,6 +4745,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4705,6 +4781,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4740,6 +4817,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4775,6 +4853,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4814,6 +4893,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4857,6 +4937,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4898,6 +4979,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4933,6 +5015,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4968,6 +5051,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5003,6 +5087,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5038,6 +5123,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5073,6 +5159,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5108,6 +5195,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5143,6 +5231,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5178,6 +5267,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5213,6 +5303,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5248,6 +5339,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5283,6 +5375,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5324,6 +5417,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5365,6 +5459,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>315</v>
+        <v>313.9</v>
       </c>
       <c r="C2" t="n">
-        <v>315</v>
+        <v>313.9</v>
       </c>
       <c r="D2" t="n">
-        <v>315</v>
+        <v>313.9</v>
       </c>
       <c r="E2" t="n">
-        <v>315</v>
+        <v>313.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1092.298</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-5992.683071009997</v>
+        <v>-8575.26597101</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>312.8</v>
+        <v>314</v>
       </c>
       <c r="C3" t="n">
-        <v>312.8</v>
+        <v>314</v>
       </c>
       <c r="D3" t="n">
-        <v>312.8</v>
+        <v>314</v>
       </c>
       <c r="E3" t="n">
-        <v>312.8</v>
+        <v>313.9</v>
       </c>
       <c r="F3" t="n">
-        <v>931.7394</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>-6924.422471009997</v>
+        <v>-8569.26597101</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>313.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>311.8</v>
+        <v>313.9</v>
       </c>
       <c r="C4" t="n">
-        <v>310.3</v>
+        <v>311</v>
       </c>
       <c r="D4" t="n">
-        <v>311.8</v>
+        <v>313.9</v>
       </c>
       <c r="E4" t="n">
-        <v>310.3</v>
+        <v>311</v>
       </c>
       <c r="F4" t="n">
-        <v>2280.0811</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>-9204.503571009996</v>
+        <v>-8669.26597101</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>314</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315.4</v>
+        <v>314</v>
       </c>
       <c r="C5" t="n">
-        <v>315.3</v>
+        <v>314</v>
       </c>
       <c r="D5" t="n">
-        <v>315.4</v>
+        <v>314</v>
       </c>
       <c r="E5" t="n">
-        <v>315.3</v>
+        <v>314</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-9200.503571009996</v>
+        <v>-8667.26597101</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>311</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315.1</v>
+        <v>310.9</v>
       </c>
       <c r="C6" t="n">
-        <v>315.1</v>
+        <v>310.9</v>
       </c>
       <c r="D6" t="n">
-        <v>315.1</v>
+        <v>310.9</v>
       </c>
       <c r="E6" t="n">
-        <v>315.1</v>
+        <v>310.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-9204.503571009996</v>
+        <v>-8669.26597101</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>314</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>313.3</v>
+        <v>310.8</v>
       </c>
       <c r="C7" t="n">
-        <v>312.9</v>
+        <v>310</v>
       </c>
       <c r="D7" t="n">
-        <v>313.3</v>
+        <v>310.8</v>
       </c>
       <c r="E7" t="n">
-        <v>312.9</v>
+        <v>310</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>-9214.503571009996</v>
+        <v>-8689.26597101</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>310.9</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>312.8</v>
+        <v>310.9</v>
       </c>
       <c r="C8" t="n">
-        <v>312</v>
+        <v>310.9</v>
       </c>
       <c r="D8" t="n">
-        <v>312.8</v>
+        <v>310.9</v>
       </c>
       <c r="E8" t="n">
-        <v>312</v>
+        <v>310.9</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>-9232.503571009996</v>
+        <v>-8687.26597101</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>310</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>311.9</v>
+        <v>309.9</v>
       </c>
       <c r="C9" t="n">
-        <v>311.8</v>
+        <v>309.1</v>
       </c>
       <c r="D9" t="n">
-        <v>311.9</v>
+        <v>309.9</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8</v>
+        <v>309.1</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>160.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-9236.503571009996</v>
+        <v>-8848.065971009999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>310.9</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +768,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>311.7</v>
+        <v>310.9</v>
       </c>
       <c r="C10" t="n">
-        <v>311</v>
+        <v>310.9</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7</v>
+        <v>310.9</v>
       </c>
       <c r="E10" t="n">
-        <v>311</v>
+        <v>310.9</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>-9252.503571009996</v>
+        <v>-8846.065971009999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>309.1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +810,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="C11" t="n">
         <v>310.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>310.2</v>
       </c>
       <c r="D11" t="n">
         <v>310.9</v>
       </c>
       <c r="E11" t="n">
-        <v>310.2</v>
+        <v>309.1</v>
       </c>
       <c r="F11" t="n">
-        <v>329.6058</v>
+        <v>92</v>
       </c>
       <c r="G11" t="n">
-        <v>-9582.109371009996</v>
+        <v>-8846.065971009999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>310.9</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>310.2</v>
+        <v>309.1</v>
       </c>
       <c r="C12" t="n">
-        <v>310.1</v>
+        <v>309.1</v>
       </c>
       <c r="D12" t="n">
-        <v>310.2</v>
+        <v>309.1</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1</v>
+        <v>308.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1184.3136</v>
+        <v>56.3188</v>
       </c>
       <c r="G12" t="n">
-        <v>-10766.42297101</v>
+        <v>-8902.384771009998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>310.9</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C13" t="n">
-        <v>310</v>
+        <v>308.1</v>
       </c>
       <c r="D13" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13" t="n">
-        <v>310</v>
+        <v>307.2</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>702</v>
       </c>
       <c r="G13" t="n">
-        <v>-10768.42297101</v>
+        <v>-9604.384771009998</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -858,12 +918,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>309.1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -874,36 +936,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>310</v>
+        <v>309.1</v>
       </c>
       <c r="C14" t="n">
-        <v>310.1</v>
+        <v>309.1</v>
       </c>
       <c r="D14" t="n">
-        <v>310.1</v>
+        <v>309.1</v>
       </c>
       <c r="E14" t="n">
-        <v>310</v>
+        <v>309.1</v>
       </c>
       <c r="F14" t="n">
-        <v>174.4677</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>-10593.95527101</v>
+        <v>-9600.384771009998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J14" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -916,33 +978,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>310.1</v>
+        <v>310.8</v>
       </c>
       <c r="C15" t="n">
-        <v>310.1</v>
+        <v>310.8</v>
       </c>
       <c r="D15" t="n">
-        <v>310.1</v>
+        <v>310.8</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1</v>
+        <v>310.8</v>
       </c>
       <c r="F15" t="n">
-        <v>195.0585</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>-10593.95527101</v>
+        <v>-9598.384771009998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J15" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -958,33 +1020,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>310.2</v>
+        <v>310.8</v>
       </c>
       <c r="C16" t="n">
-        <v>315.5</v>
+        <v>310.9</v>
       </c>
       <c r="D16" t="n">
-        <v>315.5</v>
+        <v>310.9</v>
       </c>
       <c r="E16" t="n">
-        <v>310.2</v>
+        <v>310.8</v>
       </c>
       <c r="F16" t="n">
-        <v>395</v>
+        <v>615.2003</v>
       </c>
       <c r="G16" t="n">
-        <v>-10198.95527101</v>
+        <v>-8983.184471009998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J16" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1000,33 +1062,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>314.4</v>
+        <v>310.4</v>
       </c>
       <c r="C17" t="n">
-        <v>314.4</v>
+        <v>310.4</v>
       </c>
       <c r="D17" t="n">
-        <v>314.4</v>
+        <v>310.4</v>
       </c>
       <c r="E17" t="n">
-        <v>314.4</v>
+        <v>310.4</v>
       </c>
       <c r="F17" t="n">
-        <v>158.2174</v>
+        <v>965.7916</v>
       </c>
       <c r="G17" t="n">
-        <v>-10357.17267101</v>
+        <v>-9948.976071009998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J17" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,33 +1104,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>314.3</v>
+        <v>310.9</v>
       </c>
       <c r="C18" t="n">
-        <v>314.3</v>
+        <v>314</v>
       </c>
       <c r="D18" t="n">
-        <v>314.3</v>
+        <v>314</v>
       </c>
       <c r="E18" t="n">
-        <v>314.3</v>
+        <v>310.9</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>-10359.17267101</v>
+        <v>-9946.976071009998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J18" t="n">
+        <v>310.4</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,33 +1146,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>314.2</v>
+        <v>314</v>
       </c>
       <c r="C19" t="n">
-        <v>314.2</v>
+        <v>315</v>
       </c>
       <c r="D19" t="n">
-        <v>314.2</v>
+        <v>315</v>
       </c>
       <c r="E19" t="n">
-        <v>314.2</v>
+        <v>314</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1058.2975</v>
       </c>
       <c r="G19" t="n">
-        <v>-10361.17267101</v>
+        <v>-8888.678571009998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J19" t="n">
+        <v>314</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1126,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>315.6</v>
+        <v>314</v>
       </c>
       <c r="C20" t="n">
         <v>314</v>
       </c>
       <c r="D20" t="n">
-        <v>315.6</v>
+        <v>314</v>
       </c>
       <c r="E20" t="n">
         <v>314</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>6.9165</v>
       </c>
       <c r="G20" t="n">
-        <v>-10367.17267101</v>
+        <v>-8895.595071009997</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1150,11 +1212,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>314.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>310.1</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,22 +1230,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="C21" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="D21" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="E21" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>232.5582</v>
       </c>
       <c r="G21" t="n">
-        <v>-10365.17267101</v>
+        <v>-8895.595071009997</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1196,9 +1256,7 @@
       <c r="J21" t="n">
         <v>314</v>
       </c>
-      <c r="K21" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,35 +1272,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="C22" t="n">
-        <v>315.7</v>
+        <v>314</v>
       </c>
       <c r="D22" t="n">
-        <v>315.7</v>
+        <v>314</v>
       </c>
       <c r="E22" t="n">
-        <v>314.7</v>
+        <v>314</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>1438.4087</v>
       </c>
       <c r="G22" t="n">
-        <v>-10343.17267101</v>
+        <v>-8895.595071009997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>314.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,22 +1312,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>314.7</v>
+        <v>311.3</v>
       </c>
       <c r="C23" t="n">
-        <v>315.7</v>
+        <v>311.3</v>
       </c>
       <c r="D23" t="n">
-        <v>315.7</v>
+        <v>311.3</v>
       </c>
       <c r="E23" t="n">
-        <v>314.7</v>
+        <v>311.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1409.2746</v>
+        <v>35.9994</v>
       </c>
       <c r="G23" t="n">
-        <v>-10343.17267101</v>
+        <v>-8931.594471009998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1282,9 +1336,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,22 +1352,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>315.7</v>
+        <v>314.3</v>
       </c>
       <c r="C24" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="D24" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="E24" t="n">
-        <v>315.7</v>
+        <v>314.3</v>
       </c>
       <c r="F24" t="n">
-        <v>67.7466</v>
+        <v>988.5294</v>
       </c>
       <c r="G24" t="n">
-        <v>-10343.17267101</v>
+        <v>-7943.065071009997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1324,9 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,22 +1392,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="C25" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="D25" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="E25" t="n">
-        <v>315.7</v>
+        <v>316.8</v>
       </c>
       <c r="F25" t="n">
-        <v>413.0467</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>-10343.17267101</v>
+        <v>-7943.065071009997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1366,9 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,22 +1432,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>315.8</v>
+        <v>316.5</v>
       </c>
       <c r="C26" t="n">
-        <v>317</v>
+        <v>319.7</v>
       </c>
       <c r="D26" t="n">
-        <v>317</v>
+        <v>319.7</v>
       </c>
       <c r="E26" t="n">
-        <v>315.8</v>
+        <v>316.5</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>9442.221600000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-10317.17267101</v>
+        <v>1499.156528990004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1408,9 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,22 +1472,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>316</v>
+        <v>319.3</v>
       </c>
       <c r="C27" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D27" t="n">
-        <v>317</v>
+        <v>319.3</v>
       </c>
       <c r="E27" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" t="n">
-        <v>809.9712</v>
+        <v>3193.9871</v>
       </c>
       <c r="G27" t="n">
-        <v>-10317.17267101</v>
+        <v>-1694.830571009996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1450,9 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1468,35 +1512,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>317</v>
+        <v>319.5</v>
       </c>
       <c r="C28" t="n">
-        <v>317</v>
+        <v>319.5</v>
       </c>
       <c r="D28" t="n">
-        <v>317</v>
+        <v>319.5</v>
       </c>
       <c r="E28" t="n">
-        <v>317</v>
+        <v>319.5</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>322.5221</v>
       </c>
       <c r="G28" t="n">
-        <v>-10317.17267101</v>
+        <v>-1372.308471009996</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>317</v>
-      </c>
-      <c r="K28" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1512,22 +1552,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C29" t="n">
-        <v>319.5</v>
+        <v>316</v>
       </c>
       <c r="D29" t="n">
-        <v>319.5</v>
+        <v>316</v>
       </c>
       <c r="E29" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F29" t="n">
-        <v>950</v>
+        <v>610.3746</v>
       </c>
       <c r="G29" t="n">
-        <v>-9367.172671009996</v>
+        <v>-1982.683071009996</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1536,9 +1576,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1554,22 +1592,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C30" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D30" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E30" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F30" t="n">
-        <v>4412.4206</v>
+        <v>4010</v>
       </c>
       <c r="G30" t="n">
-        <v>-13779.59327101</v>
+        <v>-5992.683071009997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1578,9 +1616,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,22 +1632,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C31" t="n">
-        <v>318.8</v>
+        <v>315</v>
       </c>
       <c r="D31" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E31" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F31" t="n">
-        <v>4159.3615</v>
+        <v>1092.298</v>
       </c>
       <c r="G31" t="n">
-        <v>-9620.231771009996</v>
+        <v>-5992.683071009997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1620,9 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1638,22 +1672,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>318.8</v>
+        <v>312.8</v>
       </c>
       <c r="C32" t="n">
-        <v>318.7</v>
+        <v>312.8</v>
       </c>
       <c r="D32" t="n">
-        <v>318.8</v>
+        <v>312.8</v>
       </c>
       <c r="E32" t="n">
-        <v>318.7</v>
+        <v>312.8</v>
       </c>
       <c r="F32" t="n">
-        <v>635.7</v>
+        <v>931.7394</v>
       </c>
       <c r="G32" t="n">
-        <v>-10255.93177101</v>
+        <v>-6924.422471009997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1662,9 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,22 +1712,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>319.5</v>
+        <v>311.8</v>
       </c>
       <c r="C33" t="n">
-        <v>319.5</v>
+        <v>310.3</v>
       </c>
       <c r="D33" t="n">
-        <v>319.5</v>
+        <v>311.8</v>
       </c>
       <c r="E33" t="n">
-        <v>319.5</v>
+        <v>310.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2280.0811</v>
       </c>
       <c r="G33" t="n">
-        <v>-10253.93177101</v>
+        <v>-9204.503571009996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1704,9 +1736,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1722,33 +1752,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>319.5</v>
+        <v>315.4</v>
       </c>
       <c r="C34" t="n">
-        <v>319.5</v>
+        <v>315.3</v>
       </c>
       <c r="D34" t="n">
-        <v>319.5</v>
+        <v>315.4</v>
       </c>
       <c r="E34" t="n">
-        <v>319.5</v>
+        <v>315.3</v>
       </c>
       <c r="F34" t="n">
-        <v>12.333</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>-10253.93177101</v>
+        <v>-9200.503571009996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J34" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1764,22 +1794,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>319.5</v>
+        <v>315.1</v>
       </c>
       <c r="C35" t="n">
-        <v>319.8</v>
+        <v>315.1</v>
       </c>
       <c r="D35" t="n">
-        <v>319.8</v>
+        <v>315.1</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5</v>
+        <v>315.1</v>
       </c>
       <c r="F35" t="n">
-        <v>973.9571999999999</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>-9279.974571009996</v>
+        <v>-9204.503571009996</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1788,9 +1818,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1806,22 +1834,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>319.6</v>
+        <v>313.3</v>
       </c>
       <c r="C36" t="n">
-        <v>319.8</v>
+        <v>312.9</v>
       </c>
       <c r="D36" t="n">
-        <v>319.8</v>
+        <v>313.3</v>
       </c>
       <c r="E36" t="n">
-        <v>319.6</v>
+        <v>312.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1383.0953</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-9279.974571009996</v>
+        <v>-9214.503571009996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1830,9 +1858,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,22 +1874,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>319.8</v>
+        <v>312.8</v>
       </c>
       <c r="C37" t="n">
-        <v>319.8</v>
+        <v>312</v>
       </c>
       <c r="D37" t="n">
-        <v>319.8</v>
+        <v>312.8</v>
       </c>
       <c r="E37" t="n">
-        <v>319.8</v>
+        <v>312</v>
       </c>
       <c r="F37" t="n">
-        <v>920.1068</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>-9279.974571009996</v>
+        <v>-9232.503571009996</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1872,9 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,22 +1914,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>319.8</v>
+        <v>311.9</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4</v>
+        <v>311.8</v>
       </c>
       <c r="D38" t="n">
-        <v>322.4</v>
+        <v>311.9</v>
       </c>
       <c r="E38" t="n">
-        <v>319.8</v>
+        <v>311.8</v>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>-5279.974571009996</v>
+        <v>-9236.503571009996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1914,9 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1932,33 +1954,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>318</v>
+        <v>311.7</v>
       </c>
       <c r="C39" t="n">
-        <v>322.3</v>
+        <v>311</v>
       </c>
       <c r="D39" t="n">
-        <v>322.3</v>
+        <v>311.7</v>
       </c>
       <c r="E39" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F39" t="n">
-        <v>5002.8929</v>
+        <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>-10282.86747100999</v>
+        <v>-9252.503571009996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J39" t="n">
+        <v>311.8</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,33 +1996,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>320</v>
+        <v>310.9</v>
       </c>
       <c r="C40" t="n">
-        <v>320</v>
+        <v>310.2</v>
       </c>
       <c r="D40" t="n">
-        <v>320</v>
+        <v>310.9</v>
       </c>
       <c r="E40" t="n">
-        <v>320</v>
+        <v>310.2</v>
       </c>
       <c r="F40" t="n">
-        <v>75.23390000000001</v>
+        <v>329.6058</v>
       </c>
       <c r="G40" t="n">
-        <v>-10358.10137100999</v>
+        <v>-9582.109371009996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J40" t="n">
+        <v>311</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,33 +2038,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>318.6</v>
+        <v>310.2</v>
       </c>
       <c r="C41" t="n">
-        <v>318.6</v>
+        <v>310.1</v>
       </c>
       <c r="D41" t="n">
-        <v>318.6</v>
+        <v>310.2</v>
       </c>
       <c r="E41" t="n">
-        <v>318.6</v>
+        <v>310.1</v>
       </c>
       <c r="F41" t="n">
-        <v>325</v>
+        <v>1184.3136</v>
       </c>
       <c r="G41" t="n">
-        <v>-10683.10137100999</v>
+        <v>-10766.42297101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J41" t="n">
+        <v>310.2</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,33 +2080,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C42" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D42" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E42" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>-10681.10137100999</v>
+        <v>-10768.42297101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="J42" t="n">
         <v>310.1</v>
       </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2100,33 +2122,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>318.7</v>
+        <v>310</v>
       </c>
       <c r="C43" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="D43" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="E43" t="n">
-        <v>318.7</v>
+        <v>310</v>
       </c>
       <c r="F43" t="n">
-        <v>502</v>
+        <v>174.4677</v>
       </c>
       <c r="G43" t="n">
-        <v>-10681.10137100999</v>
+        <v>-10593.95527101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J43" t="n">
+        <v>310</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,33 +2164,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="C44" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="D44" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="E44" t="n">
-        <v>320</v>
+        <v>310.1</v>
       </c>
       <c r="F44" t="n">
-        <v>935.1607</v>
+        <v>195.0585</v>
       </c>
       <c r="G44" t="n">
-        <v>-10681.10137100999</v>
+        <v>-10593.95527101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="J44" t="n">
         <v>310.1</v>
       </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,33 +2206,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>321</v>
+        <v>310.2</v>
       </c>
       <c r="C45" t="n">
-        <v>321</v>
+        <v>315.5</v>
       </c>
       <c r="D45" t="n">
-        <v>321</v>
+        <v>315.5</v>
       </c>
       <c r="E45" t="n">
-        <v>321</v>
+        <v>310.2</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="G45" t="n">
-        <v>-10679.10137100999</v>
+        <v>-10198.95527101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="J45" t="n">
         <v>310.1</v>
       </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2226,33 +2248,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="C46" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="D46" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="E46" t="n">
-        <v>321</v>
+        <v>314.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1101.3676</v>
+        <v>158.2174</v>
       </c>
       <c r="G46" t="n">
-        <v>-10679.10137100999</v>
+        <v>-10357.17267101</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J46" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,22 +2290,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="C47" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="D47" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="E47" t="n">
-        <v>321</v>
+        <v>314.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>-10679.10137100999</v>
+        <v>-10359.17267101</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2292,9 +2314,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,22 +2330,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="C48" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="D48" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="E48" t="n">
-        <v>320</v>
+        <v>314.2</v>
       </c>
       <c r="F48" t="n">
-        <v>354.0679</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-11033.16927100999</v>
+        <v>-10361.17267101</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2334,9 +2354,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,22 +2370,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>320</v>
+        <v>315.6</v>
       </c>
       <c r="C49" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D49" t="n">
-        <v>320</v>
+        <v>315.6</v>
       </c>
       <c r="E49" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F49" t="n">
-        <v>187.0561</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>-11033.16927100999</v>
+        <v>-10367.17267101</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2376,9 +2394,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,22 +2410,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="C50" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="D50" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="E50" t="n">
-        <v>319.1</v>
+        <v>314.7</v>
       </c>
       <c r="F50" t="n">
-        <v>1687.633</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>-12720.80227100999</v>
+        <v>-10365.17267101</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2418,9 +2434,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2436,22 +2450,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="C51" t="n">
-        <v>320</v>
+        <v>315.7</v>
       </c>
       <c r="D51" t="n">
-        <v>320</v>
+        <v>315.7</v>
       </c>
       <c r="E51" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>-12718.80227100999</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2460,9 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,22 +2490,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="C52" t="n">
-        <v>322</v>
+        <v>315.7</v>
       </c>
       <c r="D52" t="n">
-        <v>322</v>
+        <v>315.7</v>
       </c>
       <c r="E52" t="n">
-        <v>320</v>
+        <v>314.7</v>
       </c>
       <c r="F52" t="n">
-        <v>724.5956</v>
+        <v>1409.2746</v>
       </c>
       <c r="G52" t="n">
-        <v>-11994.20667100999</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2502,9 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,22 +2530,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="C53" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="D53" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="E53" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>67.7466</v>
       </c>
       <c r="G53" t="n">
-        <v>-11992.20667100999</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2544,9 +2554,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,35 +2570,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="C54" t="n">
-        <v>322.9</v>
+        <v>315.7</v>
       </c>
       <c r="D54" t="n">
-        <v>322.9</v>
+        <v>315.7</v>
       </c>
       <c r="E54" t="n">
-        <v>322.4</v>
+        <v>315.7</v>
       </c>
       <c r="F54" t="n">
-        <v>17876.7481</v>
+        <v>413.0467</v>
       </c>
       <c r="G54" t="n">
-        <v>5884.541428990007</v>
+        <v>-10343.17267101</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>322.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,22 +2610,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>319.3</v>
+        <v>315.8</v>
       </c>
       <c r="C55" t="n">
-        <v>319.3</v>
+        <v>317</v>
       </c>
       <c r="D55" t="n">
-        <v>319.3</v>
+        <v>317</v>
       </c>
       <c r="E55" t="n">
-        <v>319.3</v>
+        <v>315.8</v>
       </c>
       <c r="F55" t="n">
-        <v>6.6955</v>
+        <v>26</v>
       </c>
       <c r="G55" t="n">
-        <v>5877.845928990007</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2630,9 +2634,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,35 +2650,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C56" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D56" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E56" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>809.9712</v>
       </c>
       <c r="G56" t="n">
-        <v>5879.845928990007</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>319.3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,22 +2690,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C57" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="D57" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="E57" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F57" t="n">
-        <v>2067.08173815</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>7946.927667140008</v>
+        <v>-10317.17267101</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2716,9 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,22 +2730,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="C58" t="n">
-        <v>327.3</v>
+        <v>319.5</v>
       </c>
       <c r="D58" t="n">
-        <v>327.3</v>
+        <v>319.5</v>
       </c>
       <c r="E58" t="n">
-        <v>326.6</v>
+        <v>317</v>
       </c>
       <c r="F58" t="n">
-        <v>5868.005</v>
+        <v>950</v>
       </c>
       <c r="G58" t="n">
-        <v>13814.93266714001</v>
+        <v>-9367.172671009996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2758,9 +2754,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2776,22 +2770,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>327.3</v>
+        <v>318</v>
       </c>
       <c r="C59" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D59" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="E59" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F59" t="n">
-        <v>1554.43864955</v>
+        <v>4412.4206</v>
       </c>
       <c r="G59" t="n">
-        <v>12260.49401759001</v>
+        <v>-13779.59327101</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2800,9 +2794,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,22 +2810,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="C60" t="n">
-        <v>327.3</v>
+        <v>318.8</v>
       </c>
       <c r="D60" t="n">
-        <v>327.3</v>
+        <v>319</v>
       </c>
       <c r="E60" t="n">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F60" t="n">
-        <v>103.7</v>
+        <v>4159.3615</v>
       </c>
       <c r="G60" t="n">
-        <v>12364.19401759001</v>
+        <v>-9620.231771009996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2842,9 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,22 +2850,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>327.3</v>
+        <v>318.8</v>
       </c>
       <c r="C61" t="n">
-        <v>323</v>
+        <v>318.7</v>
       </c>
       <c r="D61" t="n">
-        <v>329</v>
+        <v>318.8</v>
       </c>
       <c r="E61" t="n">
-        <v>323</v>
+        <v>318.7</v>
       </c>
       <c r="F61" t="n">
-        <v>1647.89229221</v>
+        <v>635.7</v>
       </c>
       <c r="G61" t="n">
-        <v>10716.30172538001</v>
+        <v>-10255.93177101</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2884,9 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,41 +2890,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>329</v>
+        <v>319.5</v>
       </c>
       <c r="C62" t="n">
-        <v>329</v>
+        <v>319.5</v>
       </c>
       <c r="D62" t="n">
-        <v>329.5</v>
+        <v>319.5</v>
       </c>
       <c r="E62" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="F62" t="n">
-        <v>561.00132009</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>11277.30304547001</v>
+        <v>-10253.93177101</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2944,66 +2928,58 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="C63" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="D63" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="E63" t="n">
-        <v>322</v>
+        <v>319.5</v>
       </c>
       <c r="F63" t="n">
-        <v>129.7803</v>
+        <v>12.333</v>
       </c>
       <c r="G63" t="n">
-        <v>11147.52274547001</v>
+        <v>-10253.93177101</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>1.033374717832957</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.01741935483871</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>320.5</v>
+        <v>319.5</v>
       </c>
       <c r="C64" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="D64" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="E64" t="n">
-        <v>320.5</v>
+        <v>319.5</v>
       </c>
       <c r="F64" t="n">
-        <v>447.7847</v>
+        <v>973.9571999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>11595.30744547001</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3024,22 +3000,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>325</v>
+        <v>319.6</v>
       </c>
       <c r="C65" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="D65" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="E65" t="n">
-        <v>325</v>
+        <v>319.6</v>
       </c>
       <c r="F65" t="n">
-        <v>6.4878</v>
+        <v>1383.0953</v>
       </c>
       <c r="G65" t="n">
-        <v>11595.30744547001</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3060,22 +3036,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>328</v>
+        <v>319.8</v>
       </c>
       <c r="C66" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="D66" t="n">
-        <v>330</v>
+        <v>319.8</v>
       </c>
       <c r="E66" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="F66" t="n">
-        <v>694.1138</v>
+        <v>920.1068</v>
       </c>
       <c r="G66" t="n">
-        <v>10901.19364547001</v>
+        <v>-9279.974571009996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3096,28 +3072,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="C67" t="n">
-        <v>321.2</v>
+        <v>322.4</v>
       </c>
       <c r="D67" t="n">
-        <v>321.2</v>
+        <v>322.4</v>
       </c>
       <c r="E67" t="n">
-        <v>321.2</v>
+        <v>319.8</v>
       </c>
       <c r="F67" t="n">
-        <v>488</v>
+        <v>4000</v>
       </c>
       <c r="G67" t="n">
-        <v>10901.19364547001</v>
+        <v>-5279.974571009996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3132,22 +3108,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C68" t="n">
-        <v>320.6</v>
+        <v>322.3</v>
       </c>
       <c r="D68" t="n">
-        <v>322</v>
+        <v>322.3</v>
       </c>
       <c r="E68" t="n">
-        <v>320.6</v>
+        <v>317</v>
       </c>
       <c r="F68" t="n">
-        <v>3487.9089</v>
+        <v>5002.8929</v>
       </c>
       <c r="G68" t="n">
-        <v>7413.28474547001</v>
+        <v>-10282.86747100999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3168,22 +3144,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>320.7</v>
+        <v>320</v>
       </c>
       <c r="C69" t="n">
-        <v>330.9</v>
+        <v>320</v>
       </c>
       <c r="D69" t="n">
-        <v>330.9</v>
+        <v>320</v>
       </c>
       <c r="E69" t="n">
-        <v>320.7</v>
+        <v>320</v>
       </c>
       <c r="F69" t="n">
-        <v>64.363</v>
+        <v>75.23390000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>7477.64774547001</v>
+        <v>-10358.10137100999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3204,22 +3180,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>321</v>
+        <v>318.6</v>
       </c>
       <c r="C70" t="n">
-        <v>320.6</v>
+        <v>318.6</v>
       </c>
       <c r="D70" t="n">
-        <v>330.9</v>
+        <v>318.6</v>
       </c>
       <c r="E70" t="n">
-        <v>320.6</v>
+        <v>318.6</v>
       </c>
       <c r="F70" t="n">
-        <v>1320.9803783</v>
+        <v>325</v>
       </c>
       <c r="G70" t="n">
-        <v>6156.66736717001</v>
+        <v>-10683.10137100999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3240,28 +3216,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C71" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D71" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E71" t="n">
-        <v>323.3</v>
+        <v>320</v>
       </c>
       <c r="F71" t="n">
-        <v>746.5</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>6903.16736717001</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3276,28 +3252,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>322.3</v>
+        <v>318.7</v>
       </c>
       <c r="C72" t="n">
-        <v>322.3</v>
+        <v>320</v>
       </c>
       <c r="D72" t="n">
-        <v>322.3</v>
+        <v>320</v>
       </c>
       <c r="E72" t="n">
-        <v>322.3</v>
+        <v>318.7</v>
       </c>
       <c r="F72" t="n">
-        <v>1210</v>
+        <v>502</v>
       </c>
       <c r="G72" t="n">
-        <v>5693.16736717001</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3312,28 +3288,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>328.9</v>
+        <v>320</v>
       </c>
       <c r="C73" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D73" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E73" t="n">
-        <v>328.9</v>
+        <v>320</v>
       </c>
       <c r="F73" t="n">
-        <v>35</v>
+        <v>935.1607</v>
       </c>
       <c r="G73" t="n">
-        <v>5728.16736717001</v>
+        <v>-10681.10137100999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3348,28 +3324,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="C74" t="n">
-        <v>327.9</v>
+        <v>321</v>
       </c>
       <c r="D74" t="n">
-        <v>327.9</v>
+        <v>321</v>
       </c>
       <c r="E74" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="F74" t="n">
-        <v>171.0278</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>5557.13956717001</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3384,28 +3360,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C75" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="D75" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E75" t="n">
-        <v>322.3</v>
+        <v>321</v>
       </c>
       <c r="F75" t="n">
-        <v>609.2061</v>
+        <v>1101.3676</v>
       </c>
       <c r="G75" t="n">
-        <v>4947.93346717001</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3420,22 +3396,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>321.1</v>
+        <v>321</v>
       </c>
       <c r="C76" t="n">
-        <v>320.6</v>
+        <v>321</v>
       </c>
       <c r="D76" t="n">
-        <v>321.1</v>
+        <v>321</v>
       </c>
       <c r="E76" t="n">
-        <v>320.6</v>
+        <v>321</v>
       </c>
       <c r="F76" t="n">
-        <v>968.9694</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>3978.96406717001</v>
+        <v>-10679.10137100999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3456,28 +3432,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>319.1</v>
+        <v>320</v>
       </c>
       <c r="C77" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D77" t="n">
-        <v>319.1</v>
+        <v>320</v>
       </c>
       <c r="E77" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F77" t="n">
-        <v>3043</v>
+        <v>354.0679</v>
       </c>
       <c r="G77" t="n">
-        <v>935.9640671700099</v>
+        <v>-11033.16927100999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3492,22 +3468,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C78" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D78" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E78" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>187.0561</v>
       </c>
       <c r="G78" t="n">
-        <v>935.9640671700099</v>
+        <v>-11033.16927100999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3528,22 +3504,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="C79" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="D79" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="E79" t="n">
-        <v>321.7</v>
+        <v>319.1</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1687.633</v>
       </c>
       <c r="G79" t="n">
-        <v>938.9640671700099</v>
+        <v>-12720.80227100999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3564,22 +3540,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>321.8</v>
+        <v>320</v>
       </c>
       <c r="C80" t="n">
-        <v>325.9</v>
+        <v>320</v>
       </c>
       <c r="D80" t="n">
-        <v>325.9</v>
+        <v>320</v>
       </c>
       <c r="E80" t="n">
-        <v>321.8</v>
+        <v>320</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>942.9640671700099</v>
+        <v>-12718.80227100999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3600,22 +3576,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>321.7</v>
+        <v>320</v>
       </c>
       <c r="C81" t="n">
-        <v>322.2</v>
+        <v>322</v>
       </c>
       <c r="D81" t="n">
-        <v>322.2</v>
+        <v>322</v>
       </c>
       <c r="E81" t="n">
-        <v>321.7</v>
+        <v>320</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>724.5956</v>
       </c>
       <c r="G81" t="n">
-        <v>938.9640671700099</v>
+        <v>-11994.20667100999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3636,28 +3612,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>322.5</v>
+        <v>322.4</v>
       </c>
       <c r="C82" t="n">
-        <v>318</v>
+        <v>322.4</v>
       </c>
       <c r="D82" t="n">
-        <v>322.5</v>
+        <v>322.4</v>
       </c>
       <c r="E82" t="n">
-        <v>318</v>
+        <v>322.4</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>934.9640671700099</v>
+        <v>-11992.20667100999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3672,28 +3648,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>318.5</v>
+        <v>322.4</v>
       </c>
       <c r="C83" t="n">
-        <v>325.9</v>
+        <v>322.9</v>
       </c>
       <c r="D83" t="n">
-        <v>325.9</v>
+        <v>322.9</v>
       </c>
       <c r="E83" t="n">
-        <v>318.5</v>
+        <v>322.4</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>17876.7481</v>
       </c>
       <c r="G83" t="n">
-        <v>938.9640671700099</v>
+        <v>5884.541428990007</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3708,28 +3684,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>318.5</v>
+        <v>319.3</v>
       </c>
       <c r="C84" t="n">
-        <v>322.8</v>
+        <v>319.3</v>
       </c>
       <c r="D84" t="n">
-        <v>322.8</v>
+        <v>319.3</v>
       </c>
       <c r="E84" t="n">
-        <v>318</v>
+        <v>319.3</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>6.6955</v>
       </c>
       <c r="G84" t="n">
-        <v>934.9640671700099</v>
+        <v>5877.845928990007</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3744,28 +3720,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C85" t="n">
-        <v>325.9</v>
+        <v>323</v>
       </c>
       <c r="D85" t="n">
-        <v>325.9</v>
+        <v>323</v>
       </c>
       <c r="E85" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>938.9640671700099</v>
+        <v>5879.845928990007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3780,28 +3756,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>319.3</v>
+        <v>323</v>
       </c>
       <c r="C86" t="n">
-        <v>321.5</v>
+        <v>326.6</v>
       </c>
       <c r="D86" t="n">
-        <v>322.6</v>
+        <v>326.6</v>
       </c>
       <c r="E86" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>2067.08173815</v>
       </c>
       <c r="G86" t="n">
-        <v>929.9640671700099</v>
+        <v>7946.927667140008</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3816,28 +3792,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>321.5</v>
+        <v>326.6</v>
       </c>
       <c r="C87" t="n">
-        <v>319.3</v>
+        <v>327.3</v>
       </c>
       <c r="D87" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="E87" t="n">
-        <v>319.3</v>
+        <v>326.6</v>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>5868.005</v>
       </c>
       <c r="G87" t="n">
-        <v>913.9640671700099</v>
+        <v>13814.93266714001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3852,28 +3828,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="C88" t="n">
-        <v>322.5</v>
+        <v>323</v>
       </c>
       <c r="D88" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="E88" t="n">
-        <v>322.5</v>
+        <v>323</v>
       </c>
       <c r="F88" t="n">
-        <v>48.3746</v>
+        <v>1554.43864955</v>
       </c>
       <c r="G88" t="n">
-        <v>962.3386671700099</v>
+        <v>12260.49401759001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3888,28 +3864,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>322.5</v>
+        <v>327.3</v>
       </c>
       <c r="C89" t="n">
-        <v>319.3</v>
+        <v>327.3</v>
       </c>
       <c r="D89" t="n">
-        <v>327</v>
+        <v>327.3</v>
       </c>
       <c r="E89" t="n">
-        <v>319.3</v>
+        <v>323</v>
       </c>
       <c r="F89" t="n">
-        <v>6.7536</v>
+        <v>103.7</v>
       </c>
       <c r="G89" t="n">
-        <v>955.5850671700099</v>
+        <v>12364.19401759001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3924,28 +3900,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>327</v>
+        <v>327.3</v>
       </c>
       <c r="C90" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D90" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E90" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1647.89229221</v>
       </c>
       <c r="G90" t="n">
-        <v>957.5850671700099</v>
+        <v>10716.30172538001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3960,28 +3936,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>322.1</v>
+        <v>329</v>
       </c>
       <c r="C91" t="n">
-        <v>322.1</v>
+        <v>329</v>
       </c>
       <c r="D91" t="n">
-        <v>322.1</v>
+        <v>329.5</v>
       </c>
       <c r="E91" t="n">
-        <v>322.1</v>
+        <v>322</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>561.00132009</v>
       </c>
       <c r="G91" t="n">
-        <v>955.5850671700099</v>
+        <v>11277.30304547001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3996,28 +3972,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="C92" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="D92" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="E92" t="n">
-        <v>319.3</v>
+        <v>322</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>129.7803</v>
       </c>
       <c r="G92" t="n">
-        <v>953.5850671700099</v>
+        <v>11147.52274547001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4032,28 +4008,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>327</v>
+        <v>320.5</v>
       </c>
       <c r="C93" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D93" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E93" t="n">
-        <v>322.8</v>
+        <v>320.5</v>
       </c>
       <c r="F93" t="n">
-        <v>8</v>
+        <v>447.7847</v>
       </c>
       <c r="G93" t="n">
-        <v>961.5850671700099</v>
+        <v>11595.30744547001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4068,28 +4044,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C94" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D94" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E94" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>6.4878</v>
       </c>
       <c r="G94" t="n">
-        <v>959.5850671700099</v>
+        <v>11595.30744547001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4104,28 +4080,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C95" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="D95" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E95" t="n">
-        <v>326</v>
+        <v>321.2</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>694.1138</v>
       </c>
       <c r="G95" t="n">
-        <v>963.5850671700099</v>
+        <v>10901.19364547001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4140,28 +4116,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>324</v>
+        <v>321.2</v>
       </c>
       <c r="C96" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="D96" t="n">
-        <v>327</v>
+        <v>321.2</v>
       </c>
       <c r="E96" t="n">
-        <v>324</v>
+        <v>321.2</v>
       </c>
       <c r="F96" t="n">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="G96" t="n">
-        <v>963.5850671700099</v>
+        <v>10901.19364547001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4176,22 +4152,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>322.6</v>
+        <v>322</v>
       </c>
       <c r="C97" t="n">
-        <v>317.7</v>
+        <v>320.6</v>
       </c>
       <c r="D97" t="n">
-        <v>322.6</v>
+        <v>322</v>
       </c>
       <c r="E97" t="n">
-        <v>317.7</v>
+        <v>320.6</v>
       </c>
       <c r="F97" t="n">
-        <v>4507.3862</v>
+        <v>3487.9089</v>
       </c>
       <c r="G97" t="n">
-        <v>-3543.80113282999</v>
+        <v>7413.28474547001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4212,28 +4188,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>317.7</v>
+        <v>320.7</v>
       </c>
       <c r="C98" t="n">
-        <v>317</v>
+        <v>330.9</v>
       </c>
       <c r="D98" t="n">
-        <v>317.7</v>
+        <v>330.9</v>
       </c>
       <c r="E98" t="n">
-        <v>317</v>
+        <v>320.7</v>
       </c>
       <c r="F98" t="n">
-        <v>407.1065</v>
+        <v>64.363</v>
       </c>
       <c r="G98" t="n">
-        <v>-3950.90763282999</v>
+        <v>7477.64774547001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4248,28 +4224,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C99" t="n">
-        <v>316</v>
+        <v>320.6</v>
       </c>
       <c r="D99" t="n">
-        <v>316</v>
+        <v>330.9</v>
       </c>
       <c r="E99" t="n">
-        <v>316</v>
+        <v>320.6</v>
       </c>
       <c r="F99" t="n">
-        <v>14</v>
+        <v>1320.9803783</v>
       </c>
       <c r="G99" t="n">
-        <v>-3964.90763282999</v>
+        <v>6156.66736717001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4284,28 +4260,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>316.9</v>
+        <v>329</v>
       </c>
       <c r="C100" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D100" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E100" t="n">
-        <v>316.9</v>
+        <v>323.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1161.0338</v>
+        <v>746.5</v>
       </c>
       <c r="G100" t="n">
-        <v>-2803.87383282999</v>
+        <v>6903.16736717001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4320,28 +4296,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="C101" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="D101" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="E101" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1210</v>
       </c>
       <c r="G101" t="n">
-        <v>-2801.87383282999</v>
+        <v>5693.16736717001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4356,28 +4332,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>319.9</v>
+        <v>328.9</v>
       </c>
       <c r="C102" t="n">
-        <v>319.9</v>
+        <v>329</v>
       </c>
       <c r="D102" t="n">
-        <v>319.9</v>
+        <v>329</v>
       </c>
       <c r="E102" t="n">
-        <v>319.9</v>
+        <v>328.9</v>
       </c>
       <c r="F102" t="n">
-        <v>595.7</v>
+        <v>35</v>
       </c>
       <c r="G102" t="n">
-        <v>-2801.87383282999</v>
+        <v>5728.16736717001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4392,28 +4368,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="C103" t="n">
-        <v>319.9</v>
+        <v>327.9</v>
       </c>
       <c r="D103" t="n">
-        <v>319.9</v>
+        <v>327.9</v>
       </c>
       <c r="E103" t="n">
-        <v>319.9</v>
+        <v>322.3</v>
       </c>
       <c r="F103" t="n">
-        <v>155.99</v>
+        <v>171.0278</v>
       </c>
       <c r="G103" t="n">
-        <v>-2801.87383282999</v>
+        <v>5557.13956717001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4428,22 +4404,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>318.1</v>
+        <v>328</v>
       </c>
       <c r="C104" t="n">
-        <v>316.3</v>
+        <v>322.3</v>
       </c>
       <c r="D104" t="n">
-        <v>318.1</v>
+        <v>328</v>
       </c>
       <c r="E104" t="n">
-        <v>316.3</v>
+        <v>322.3</v>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>609.2061</v>
       </c>
       <c r="G104" t="n">
-        <v>-2841.87383282999</v>
+        <v>4947.93346717001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4464,28 +4440,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>317.2</v>
+        <v>321.1</v>
       </c>
       <c r="C105" t="n">
-        <v>317.2</v>
+        <v>320.6</v>
       </c>
       <c r="D105" t="n">
-        <v>317.2</v>
+        <v>321.1</v>
       </c>
       <c r="E105" t="n">
-        <v>317.2</v>
+        <v>320.6</v>
       </c>
       <c r="F105" t="n">
-        <v>278.4531</v>
+        <v>968.9694</v>
       </c>
       <c r="G105" t="n">
-        <v>-2563.420732829989</v>
+        <v>3978.96406717001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4500,22 +4476,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>318.1</v>
+        <v>319.1</v>
       </c>
       <c r="C106" t="n">
-        <v>316.2</v>
+        <v>318</v>
       </c>
       <c r="D106" t="n">
-        <v>318.1</v>
+        <v>319.1</v>
       </c>
       <c r="E106" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F106" t="n">
-        <v>1086.1263</v>
+        <v>3043</v>
       </c>
       <c r="G106" t="n">
-        <v>-3649.547032829989</v>
+        <v>935.9640671700099</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4536,22 +4512,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>318.8</v>
+        <v>319</v>
       </c>
       <c r="C107" t="n">
-        <v>318.8</v>
+        <v>318</v>
       </c>
       <c r="D107" t="n">
-        <v>318.8</v>
+        <v>319</v>
       </c>
       <c r="E107" t="n">
-        <v>318.8</v>
+        <v>318</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G107" t="n">
-        <v>-3647.547032829989</v>
+        <v>935.9640671700099</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4572,22 +4548,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>317.2</v>
+        <v>321.7</v>
       </c>
       <c r="C108" t="n">
-        <v>317.1</v>
+        <v>321.7</v>
       </c>
       <c r="D108" t="n">
-        <v>317.2</v>
+        <v>321.7</v>
       </c>
       <c r="E108" t="n">
-        <v>317.1</v>
+        <v>321.7</v>
       </c>
       <c r="F108" t="n">
-        <v>134.0168</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>-3781.563832829989</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4608,22 +4584,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>318.1</v>
+        <v>321.8</v>
       </c>
       <c r="C109" t="n">
-        <v>315.4</v>
+        <v>325.9</v>
       </c>
       <c r="D109" t="n">
-        <v>318.1</v>
+        <v>325.9</v>
       </c>
       <c r="E109" t="n">
-        <v>315.4</v>
+        <v>321.8</v>
       </c>
       <c r="F109" t="n">
-        <v>382</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>-4163.563832829989</v>
+        <v>942.9640671700099</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4644,22 +4620,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>317</v>
+        <v>321.7</v>
       </c>
       <c r="C110" t="n">
-        <v>318.2</v>
+        <v>322.2</v>
       </c>
       <c r="D110" t="n">
-        <v>318.2</v>
+        <v>322.2</v>
       </c>
       <c r="E110" t="n">
-        <v>315.5</v>
+        <v>321.7</v>
       </c>
       <c r="F110" t="n">
-        <v>1151.9672</v>
+        <v>4</v>
       </c>
       <c r="G110" t="n">
-        <v>-3011.596632829989</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4680,28 +4656,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>315.6</v>
+        <v>322.5</v>
       </c>
       <c r="C111" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="D111" t="n">
-        <v>315.6</v>
+        <v>322.5</v>
       </c>
       <c r="E111" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="F111" t="n">
-        <v>2793</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>-5804.596632829989</v>
+        <v>934.9640671700099</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4716,22 +4692,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>316.9</v>
+        <v>318.5</v>
       </c>
       <c r="C112" t="n">
-        <v>315.5</v>
+        <v>325.9</v>
       </c>
       <c r="D112" t="n">
-        <v>316.9</v>
+        <v>325.9</v>
       </c>
       <c r="E112" t="n">
-        <v>315.5</v>
+        <v>318.5</v>
       </c>
       <c r="F112" t="n">
-        <v>98.82340000000001</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>-5804.596632829989</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4752,22 +4728,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>315.5</v>
+        <v>318.5</v>
       </c>
       <c r="C113" t="n">
-        <v>315.5</v>
+        <v>322.8</v>
       </c>
       <c r="D113" t="n">
-        <v>315.5</v>
+        <v>322.8</v>
       </c>
       <c r="E113" t="n">
-        <v>315.5</v>
+        <v>318</v>
       </c>
       <c r="F113" t="n">
-        <v>101.9999</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>-5804.596632829989</v>
+        <v>934.9640671700099</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4788,22 +4764,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>315.3</v>
+        <v>318</v>
       </c>
       <c r="C114" t="n">
-        <v>315.2</v>
+        <v>325.9</v>
       </c>
       <c r="D114" t="n">
-        <v>315.3</v>
+        <v>325.9</v>
       </c>
       <c r="E114" t="n">
-        <v>315.2</v>
+        <v>318</v>
       </c>
       <c r="F114" t="n">
-        <v>667.9999</v>
+        <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>-6472.596532829989</v>
+        <v>938.9640671700099</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4824,22 +4800,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="C115" t="n">
-        <v>315.2</v>
+        <v>321.5</v>
       </c>
       <c r="D115" t="n">
-        <v>315.2</v>
+        <v>322.6</v>
       </c>
       <c r="E115" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F115" t="n">
-        <v>199.9999</v>
+        <v>9</v>
       </c>
       <c r="G115" t="n">
-        <v>-6472.596532829989</v>
+        <v>929.9640671700099</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4860,35 +4836,31 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>315.2</v>
+        <v>321.5</v>
       </c>
       <c r="C116" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="D116" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="E116" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F116" t="n">
-        <v>2090.1579</v>
+        <v>16</v>
       </c>
       <c r="G116" t="n">
-        <v>-6472.596532829989</v>
+        <v>913.9640671700099</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>315.2</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
@@ -4900,40 +4872,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="C117" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="D117" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="E117" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1487.3542</v>
+        <v>48.3746</v>
       </c>
       <c r="G117" t="n">
-        <v>-6472.596532829989</v>
+        <v>962.3386671700099</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4944,22 +4908,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>315.2</v>
+        <v>322.5</v>
       </c>
       <c r="C118" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="D118" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="E118" t="n">
-        <v>315.2</v>
+        <v>319.3</v>
       </c>
       <c r="F118" t="n">
-        <v>100</v>
+        <v>6.7536</v>
       </c>
       <c r="G118" t="n">
-        <v>-6472.596532829989</v>
+        <v>955.5850671700099</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4968,14 +4932,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>315.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4986,22 +4944,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="C119" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="D119" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="E119" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="F119" t="n">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>-6472.596532829989</v>
+        <v>957.5850671700099</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5022,28 +4980,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>317</v>
+        <v>322.1</v>
       </c>
       <c r="C120" t="n">
-        <v>315.2</v>
+        <v>322.1</v>
       </c>
       <c r="D120" t="n">
-        <v>317</v>
+        <v>322.1</v>
       </c>
       <c r="E120" t="n">
-        <v>315.2</v>
+        <v>322.1</v>
       </c>
       <c r="F120" t="n">
-        <v>400.7239</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>-6472.596532829989</v>
+        <v>955.5850671700099</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5058,28 +5016,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>317.1</v>
+        <v>319.3</v>
       </c>
       <c r="C121" t="n">
-        <v>317.2</v>
+        <v>319.3</v>
       </c>
       <c r="D121" t="n">
-        <v>317.2</v>
+        <v>319.3</v>
       </c>
       <c r="E121" t="n">
-        <v>317.1</v>
+        <v>319.3</v>
       </c>
       <c r="F121" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>-6434.596532829989</v>
+        <v>953.5850671700099</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5094,22 +5052,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>317.2</v>
+        <v>327</v>
       </c>
       <c r="C122" t="n">
-        <v>315.2</v>
+        <v>327</v>
       </c>
       <c r="D122" t="n">
-        <v>317.2</v>
+        <v>327</v>
       </c>
       <c r="E122" t="n">
-        <v>315.2</v>
+        <v>322.8</v>
       </c>
       <c r="F122" t="n">
-        <v>115.64</v>
+        <v>8</v>
       </c>
       <c r="G122" t="n">
-        <v>-6550.236532829989</v>
+        <v>961.5850671700099</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5130,28 +5088,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>315.2</v>
+        <v>324</v>
       </c>
       <c r="C123" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D123" t="n">
-        <v>315.2</v>
+        <v>324</v>
       </c>
       <c r="E123" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F123" t="n">
-        <v>10772.0306</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>-17322.26713282999</v>
+        <v>959.5850671700099</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5166,28 +5124,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C124" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D124" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E124" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F124" t="n">
-        <v>116.1334</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>-17322.26713282999</v>
+        <v>963.5850671700099</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5202,28 +5160,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C125" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D125" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E125" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G125" t="n">
-        <v>-17322.26713282999</v>
+        <v>963.5850671700099</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5238,28 +5196,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>315</v>
+        <v>322.6</v>
       </c>
       <c r="C126" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="D126" t="n">
-        <v>315</v>
+        <v>322.6</v>
       </c>
       <c r="E126" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="F126" t="n">
-        <v>124</v>
+        <v>4507.3862</v>
       </c>
       <c r="G126" t="n">
-        <v>-17322.26713282999</v>
+        <v>-3543.80113282999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5274,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="C127" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D127" t="n">
-        <v>315</v>
+        <v>317.7</v>
       </c>
       <c r="E127" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>407.1065</v>
       </c>
       <c r="G127" t="n">
-        <v>-17322.26713282999</v>
+        <v>-3950.90763282999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5310,22 +5268,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C128" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D128" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E128" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F128" t="n">
-        <v>1047.8131</v>
+        <v>14</v>
       </c>
       <c r="G128" t="n">
-        <v>-17322.26713282999</v>
+        <v>-3964.90763282999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5346,22 +5304,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>314.6</v>
+        <v>316.9</v>
       </c>
       <c r="C129" t="n">
-        <v>314.2</v>
+        <v>317</v>
       </c>
       <c r="D129" t="n">
-        <v>314.6</v>
+        <v>317</v>
       </c>
       <c r="E129" t="n">
-        <v>314.2</v>
+        <v>316.9</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>1161.0338</v>
       </c>
       <c r="G129" t="n">
-        <v>-17332.26713282999</v>
+        <v>-2803.87383282999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5382,38 +5340,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>314.1</v>
+        <v>319.9</v>
       </c>
       <c r="C130" t="n">
-        <v>311.4</v>
+        <v>319.9</v>
       </c>
       <c r="D130" t="n">
-        <v>314.1</v>
+        <v>319.9</v>
       </c>
       <c r="E130" t="n">
-        <v>311.4</v>
+        <v>319.9</v>
       </c>
       <c r="F130" t="n">
-        <v>143.5545</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>-17475.82163282999</v>
+        <v>-2801.87383282999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>314.2</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5424,42 +5376,1080 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>595.7</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2801.87383282999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>155.99</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2801.87383282999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>40</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2841.87383282999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>278.4531</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2563.420732829989</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>316.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>316</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1086.1263</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3649.547032829989</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3647.547032829989</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>134.0168</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3781.563832829989</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>382</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4163.563832829989</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>317</v>
+      </c>
+      <c r="C139" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1151.9672</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3011.596632829989</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>315.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2793</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>98.82340000000001</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>101.9999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-5804.596632829989</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>667.9999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>199.9999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2090.1579</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1487.3542</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>196</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>317</v>
+      </c>
+      <c r="C149" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>317</v>
+      </c>
+      <c r="E149" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>400.7239</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-6472.596532829989</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>38</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-6434.596532829989</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>115.64</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-6550.236532829989</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>315</v>
+      </c>
+      <c r="D152" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>315</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10772.0306</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>315</v>
+      </c>
+      <c r="C153" t="n">
+        <v>315</v>
+      </c>
+      <c r="D153" t="n">
+        <v>315</v>
+      </c>
+      <c r="E153" t="n">
+        <v>315</v>
+      </c>
+      <c r="F153" t="n">
+        <v>116.1334</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>315</v>
+      </c>
+      <c r="C154" t="n">
+        <v>315</v>
+      </c>
+      <c r="D154" t="n">
+        <v>315</v>
+      </c>
+      <c r="E154" t="n">
+        <v>315</v>
+      </c>
+      <c r="F154" t="n">
+        <v>97</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>315</v>
+      </c>
+      <c r="C155" t="n">
+        <v>315</v>
+      </c>
+      <c r="D155" t="n">
+        <v>315</v>
+      </c>
+      <c r="E155" t="n">
+        <v>315</v>
+      </c>
+      <c r="F155" t="n">
+        <v>124</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>315</v>
+      </c>
+      <c r="C156" t="n">
+        <v>315</v>
+      </c>
+      <c r="D156" t="n">
+        <v>315</v>
+      </c>
+      <c r="E156" t="n">
+        <v>315</v>
+      </c>
+      <c r="F156" t="n">
+        <v>200</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>315</v>
+      </c>
+      <c r="C157" t="n">
+        <v>315</v>
+      </c>
+      <c r="D157" t="n">
+        <v>315</v>
+      </c>
+      <c r="E157" t="n">
+        <v>315</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1047.8131</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-17322.26713282999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-17332.26713282999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>311.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>143.5545</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-17475.82163282999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>312</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C160" t="n">
         <v>308.7</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D160" t="n">
         <v>312</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E160" t="n">
         <v>308.7</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F160" t="n">
         <v>16947.7395</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G160" t="n">
         <v>-34423.56113282999</v>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>311.4</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>313.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,21 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>314</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +556,21 @@
         <v>-8667.26597101</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>311</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +595,21 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>314</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +634,21 @@
         <v>-8689.26597101</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>310.9</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +673,21 @@
         <v>-8687.26597101</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>310</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +712,21 @@
         <v>-8848.065971009999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>310.9</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +751,21 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>309.1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +790,21 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>310.9</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +829,21 @@
         <v>-8902.384771009998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>310.9</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +868,21 @@
         <v>-9604.384771009998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>309.1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +907,21 @@
         <v>-9600.384771009998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>308.1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +946,21 @@
         <v>-9598.384771009998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>309.1</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +985,21 @@
         <v>-8983.184471009998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>310.8</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1024,21 @@
         <v>-9948.976071009998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>310.9</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1063,21 @@
         <v>-9946.976071009998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>310.4</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1102,21 @@
         <v>-8888.678571009998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>314</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1141,19 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>315</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,24 +1178,19 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>314</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,20 +1217,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,20 +1254,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,22 +1289,21 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>311.3</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1410,22 +1328,21 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>316.8</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1450,22 +1367,21 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>316.8</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1492,20 +1408,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1532,20 +1445,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1572,20 +1482,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1612,20 +1519,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1652,20 +1556,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1692,20 +1593,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1732,20 +1630,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1770,24 +1665,21 @@
         <v>-9200.503571009996</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>310.3</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1814,20 +1706,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1854,20 +1743,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1894,20 +1780,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1932,22 +1815,21 @@
         <v>-9236.503571009996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1972,24 +1854,19 @@
         <v>-9252.503571009996</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>311.8</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2014,24 +1891,21 @@
         <v>-9582.109371009996</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>311</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2056,24 +1930,21 @@
         <v>-10766.42297101</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>310.2</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2098,24 +1969,21 @@
         <v>-10768.42297101</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>310.1</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2140,24 +2008,21 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>310</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,24 +2047,21 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>310.1</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2224,24 +2086,21 @@
         <v>-10198.95527101</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>310.1</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2266,24 +2125,21 @@
         <v>-10357.17267101</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
         <v>315.5</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2308,22 +2164,19 @@
         <v>-10359.17267101</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2348,22 +2201,19 @@
         <v>-10361.17267101</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2388,22 +2238,19 @@
         <v>-10367.17267101</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2428,22 +2275,19 @@
         <v>-10365.17267101</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2468,22 +2312,19 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2508,22 +2349,19 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2548,22 +2386,19 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2588,22 +2423,19 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2628,22 +2460,19 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2668,22 +2497,19 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2708,22 +2534,19 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2748,22 +2571,19 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2788,22 +2608,19 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2828,22 +2645,19 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2870,20 +2684,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2910,18 +2721,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2946,18 +2756,19 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,18 +2793,19 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,16 +2832,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3056,16 +2869,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3090,18 +2904,19 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3128,16 +2943,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3164,16 +2980,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3198,18 +3015,17 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,18 +3050,15 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3272,16 +3085,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3308,16 +3118,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3344,16 +3151,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3378,18 +3182,15 @@
         <v>-10679.10137100999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3414,18 +3215,15 @@
         <v>-10679.10137100999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3450,18 +3248,15 @@
         <v>-11033.16927100999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3486,18 +3281,15 @@
         <v>-11033.16927100999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3522,18 +3314,15 @@
         <v>-12720.80227100999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3560,16 +3349,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3596,16 +3382,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3630,18 +3413,15 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3666,18 +3446,15 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3702,18 +3479,15 @@
         <v>5877.845928990007</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3738,18 +3512,15 @@
         <v>5879.845928990007</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3774,18 +3545,15 @@
         <v>7946.927667140008</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3812,16 +3580,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3848,16 +3613,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3882,18 +3644,15 @@
         <v>12364.19401759001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3920,16 +3679,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3954,18 +3710,15 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3990,18 +3743,15 @@
         <v>11147.52274547001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4026,18 +3776,15 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,16 +3811,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4100,16 +3844,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4136,16 +3877,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4172,16 +3910,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4208,16 +3943,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4242,18 +3974,15 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4278,18 +4007,15 @@
         <v>6903.16736717001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4314,18 +4040,15 @@
         <v>5693.16736717001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4350,18 +4073,15 @@
         <v>5728.16736717001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4386,18 +4106,15 @@
         <v>5557.13956717001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4424,16 +4141,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4460,16 +4174,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4496,16 +4207,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4532,16 +4240,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4568,16 +4273,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4604,16 +4306,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4640,16 +4339,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4676,16 +4372,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4712,16 +4405,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4748,16 +4438,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4784,16 +4471,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4818,18 +4502,15 @@
         <v>929.9640671700099</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4856,16 +4537,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4892,16 +4570,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4928,16 +4603,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4964,16 +4636,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5000,16 +4669,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5036,16 +4702,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5072,16 +4735,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5108,16 +4768,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5144,16 +4801,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5180,16 +4834,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5216,16 +4867,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5252,16 +4900,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5288,16 +4933,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5324,16 +4966,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5360,16 +4999,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5396,16 +5032,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5432,16 +5065,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5468,16 +5098,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5504,16 +5131,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5540,16 +5164,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5576,16 +5197,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5612,16 +5230,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5648,16 +5263,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5684,16 +5296,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5720,16 +5329,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5756,16 +5362,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5792,16 +5395,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5828,16 +5428,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5864,16 +5461,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5900,16 +5494,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5936,16 +5527,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5972,16 +5560,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6008,16 +5593,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6044,16 +5626,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6078,18 +5657,15 @@
         <v>-6434.596532829989</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6116,16 +5692,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6150,18 +5723,15 @@
         <v>-17322.26713282999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6188,16 +5758,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6222,18 +5789,15 @@
         <v>-17322.26713282999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6260,16 +5824,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6296,16 +5857,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6332,16 +5890,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6368,16 +5923,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6404,16 +5956,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6438,20 +5987,17 @@
         <v>-34423.56113282999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>313.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,7 +523,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>314</v>
@@ -525,7 +531,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -556,7 +562,7 @@
         <v>-8667.26597101</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>311</v>
@@ -595,7 +601,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>314</v>
@@ -634,7 +640,7 @@
         <v>-8689.26597101</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>310.9</v>
@@ -673,7 +679,7 @@
         <v>-8687.26597101</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>310</v>
@@ -712,7 +718,7 @@
         <v>-8848.065971009999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>310.9</v>
@@ -751,7 +757,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>309.1</v>
@@ -790,7 +796,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>310.9</v>
@@ -829,7 +835,7 @@
         <v>-8902.384771009998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>310.9</v>
@@ -868,11 +874,9 @@
         <v>-9604.384771009998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>309.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -907,11 +911,9 @@
         <v>-9600.384771009998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>308.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -946,7 +948,7 @@
         <v>-9598.384771009998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>309.1</v>
@@ -985,11 +987,9 @@
         <v>-8983.184471009998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>310.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,11 +1024,9 @@
         <v>-9948.976071009998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>310.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1063,11 +1061,9 @@
         <v>-9946.976071009998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>310.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1102,11 +1098,9 @@
         <v>-8888.678571009998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1289,11 +1283,9 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>311.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1328,11 +1320,9 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>316.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1367,11 +1357,9 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>316.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1665,11 +1653,9 @@
         <v>-9200.503571009996</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>310.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1815,11 +1801,9 @@
         <v>-9236.503571009996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1891,11 +1875,9 @@
         <v>-9582.109371009996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,11 +1912,9 @@
         <v>-10766.42297101</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>310.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1969,11 +1949,9 @@
         <v>-10768.42297101</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>310.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2008,11 +1986,9 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2047,11 +2023,9 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>310.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2086,11 +2060,9 @@
         <v>-10198.95527101</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>310.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2125,11 +2097,9 @@
         <v>-10357.17267101</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>315.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2164,7 +2134,7 @@
         <v>-10359.17267101</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2201,7 +2171,7 @@
         <v>-10361.17267101</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2238,7 +2208,7 @@
         <v>-10367.17267101</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2275,7 +2245,7 @@
         <v>-10365.17267101</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2312,7 +2282,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2349,7 +2319,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2386,7 +2356,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2423,7 +2393,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2460,7 +2430,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2497,7 +2467,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2534,7 +2504,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2571,7 +2541,7 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2608,7 +2578,7 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2645,7 +2615,7 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2756,7 +2726,7 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2793,7 +2763,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2904,7 +2874,7 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3015,16 +2985,18 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3050,11 +3022,15 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3087,7 +3063,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3120,7 +3100,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3137,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +3170,15 @@
         <v>-10679.10137100999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3215,11 +3207,15 @@
         <v>-10679.10137100999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3244,15 @@
         <v>-11033.16927100999</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +3281,15 @@
         <v>-11033.16927100999</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3318,15 @@
         <v>-12720.80227100999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3351,7 +3359,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3384,7 +3396,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3429,15 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3466,15 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3503,15 @@
         <v>5877.845928990007</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3540,15 @@
         <v>5879.845928990007</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3545,11 +3577,15 @@
         <v>7946.927667140008</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3582,7 +3618,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3655,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3644,11 +3688,15 @@
         <v>12364.19401759001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3725,16 @@
         <v>10716.30172538001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3710,7 +3760,7 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3743,7 +3793,7 @@
         <v>11147.52274547001</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3776,7 +3826,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3842,7 +3892,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3875,7 +3925,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3908,7 +3958,7 @@
         <v>7413.28474547001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3941,7 +3991,7 @@
         <v>7477.64774547001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3974,7 +4024,7 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4007,7 +4057,7 @@
         <v>6903.16736717001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4040,7 +4090,7 @@
         <v>5693.16736717001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4073,7 +4123,7 @@
         <v>5728.16736717001</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4106,7 +4156,7 @@
         <v>5557.13956717001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4139,7 +4189,7 @@
         <v>4947.93346717001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4172,7 +4222,7 @@
         <v>3978.96406717001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4205,7 +4255,7 @@
         <v>935.9640671700099</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4238,7 +4288,7 @@
         <v>935.9640671700099</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4271,7 +4321,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4304,7 +4354,7 @@
         <v>942.9640671700099</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4337,7 +4387,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4370,7 +4420,7 @@
         <v>934.9640671700099</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4403,7 +4453,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4436,7 +4486,7 @@
         <v>934.9640671700099</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4469,7 +4519,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4502,7 +4552,7 @@
         <v>929.9640671700099</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4535,7 +4585,7 @@
         <v>913.9640671700099</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4568,7 +4618,7 @@
         <v>962.3386671700099</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4601,7 +4651,7 @@
         <v>955.5850671700099</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4634,7 +4684,7 @@
         <v>957.5850671700099</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4700,7 +4750,7 @@
         <v>953.5850671700099</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4898,7 +4948,7 @@
         <v>-3950.90763282999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4931,7 +4981,7 @@
         <v>-3964.90763282999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5162,7 +5212,7 @@
         <v>-3649.547032829989</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5195,7 +5245,7 @@
         <v>-3647.547032829989</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5228,7 +5278,7 @@
         <v>-3781.563832829989</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5261,7 +5311,7 @@
         <v>-4163.563832829989</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5294,7 +5344,7 @@
         <v>-3011.596632829989</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5327,7 +5377,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5360,7 +5410,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5393,7 +5443,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5525,7 +5575,7 @@
         <v>-6472.596532829989</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5624,7 +5674,7 @@
         <v>-6472.596532829989</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5657,7 +5707,7 @@
         <v>-6434.596532829989</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5723,7 +5773,7 @@
         <v>-17322.26713282999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5789,7 +5839,7 @@
         <v>-17322.26713282999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5987,7 +6037,7 @@
         <v>-34423.56113282999</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5998,6 +6048,6 @@
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,405 +484,347 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>313.9</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C4" t="n">
+        <v>311</v>
+      </c>
+      <c r="D4" t="n">
+        <v>313.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>311</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-8669.26597101</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>314</v>
+      </c>
+      <c r="C5" t="n">
+        <v>314</v>
+      </c>
+      <c r="D5" t="n">
+        <v>314</v>
+      </c>
+      <c r="E5" t="n">
+        <v>314</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-8667.26597101</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-8669.26597101</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>310</v>
+      </c>
+      <c r="D7" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>310</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-8689.26597101</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-8687.26597101</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-8848.065971009999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-8846.065971009999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>92</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-8846.065971009999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>308.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>56.3188</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-8902.384771009998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>309</v>
+      </c>
+      <c r="C13" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>309</v>
+      </c>
+      <c r="E13" t="n">
+        <v>307.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>702</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-9604.384771009998</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>313.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>311</v>
-      </c>
-      <c r="D4" t="n">
-        <v>313.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>311</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-8669.26597101</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>314</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>314</v>
-      </c>
-      <c r="C5" t="n">
-        <v>314</v>
-      </c>
-      <c r="D5" t="n">
-        <v>314</v>
-      </c>
-      <c r="E5" t="n">
-        <v>314</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-8667.26597101</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>311</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-8669.26597101</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>314</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>310.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>310</v>
-      </c>
-      <c r="D7" t="n">
-        <v>310.8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>310</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-8689.26597101</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-8687.26597101</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>310</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>309.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>309.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-8848.065971009999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-8846.065971009999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-8846.065971009999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>308.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>56.3188</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-8902.384771009998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>309</v>
-      </c>
-      <c r="C13" t="n">
-        <v>308.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>309</v>
-      </c>
-      <c r="E13" t="n">
-        <v>307.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>702</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-9604.384771009998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,9 +853,11 @@
         <v>-9600.384771009998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>308.1</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1357,18 +1301,16 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1394,15 +1336,11 @@
         <v>-1694.830571009996</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1431,15 +1369,11 @@
         <v>-1372.308471009996</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1468,15 +1402,11 @@
         <v>-1982.683071009996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,15 +1435,11 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1542,15 +1468,11 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1579,15 +1501,11 @@
         <v>-6924.422471009997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,11 +1538,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1571,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1694,11 +1604,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1727,15 +1633,11 @@
         <v>-9214.503571009996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1670,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1703,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1736,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,11 +1769,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1802,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1953,11 +1835,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1868,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1901,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2060,15 +1930,15 @@
         <v>-10198.95527101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2097,13 +1967,17 @@
         <v>-10357.17267101</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>310.1</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2137,10 +2011,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>310.1</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2175,11 +2051,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2212,11 +2084,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2117,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2150,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2323,11 +2183,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2360,11 +2216,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2249,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2430,15 +2278,11 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2467,15 +2311,11 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2504,15 +2344,11 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2541,15 +2377,11 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2578,15 +2410,11 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2615,15 +2443,11 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2652,15 +2476,11 @@
         <v>-10255.93177101</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2689,15 +2509,11 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2726,15 +2542,11 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2763,15 +2575,11 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2800,15 +2608,11 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2837,15 +2641,11 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2874,15 +2674,11 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2911,15 +2707,11 @@
         <v>-10282.86747100999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2948,15 +2740,11 @@
         <v>-10358.10137100999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2985,15 +2773,11 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3022,15 +2806,11 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3059,15 +2839,11 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +2876,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +2909,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +2942,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +2975,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3008,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3041,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3074,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3355,15 +3103,11 @@
         <v>-12718.80227100999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,15 +3136,11 @@
         <v>-11994.20667100999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3429,15 +3169,11 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3466,15 +3202,11 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3239,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3272,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3305,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3338,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3371,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3404,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3725,16 +3433,14 @@
         <v>10716.30172538001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3760,7 +3466,7 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3826,7 +3532,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3892,7 +3598,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3925,7 +3631,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3958,7 +3664,7 @@
         <v>7413.28474547001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3991,7 +3697,7 @@
         <v>7477.64774547001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4024,7 +3730,7 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4057,7 +3763,7 @@
         <v>6903.16736717001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4090,7 +3796,7 @@
         <v>5693.16736717001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4123,7 +3829,7 @@
         <v>5728.16736717001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4156,7 +3862,7 @@
         <v>5557.13956717001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4189,7 +3895,7 @@
         <v>4947.93346717001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4222,7 +3928,7 @@
         <v>3978.96406717001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4255,7 +3961,7 @@
         <v>935.9640671700099</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4288,7 +3994,7 @@
         <v>935.9640671700099</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4321,7 +4027,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4354,7 +4060,7 @@
         <v>942.9640671700099</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4387,7 +4093,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4420,7 +4126,7 @@
         <v>934.9640671700099</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4453,7 +4159,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4486,7 +4192,7 @@
         <v>934.9640671700099</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4519,7 +4225,7 @@
         <v>938.9640671700099</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4651,7 +4357,7 @@
         <v>955.5850671700099</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4684,7 +4390,7 @@
         <v>957.5850671700099</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4750,7 +4456,7 @@
         <v>953.5850671700099</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4948,7 +4654,7 @@
         <v>-3950.90763282999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4981,7 +4687,7 @@
         <v>-3964.90763282999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5212,7 +4918,7 @@
         <v>-3649.547032829989</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5245,7 +4951,7 @@
         <v>-3647.547032829989</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5278,7 +4984,7 @@
         <v>-3781.563832829989</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5311,7 +5017,7 @@
         <v>-4163.563832829989</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5344,7 +5050,7 @@
         <v>-3011.596632829989</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5377,7 +5083,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5410,7 +5116,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5443,7 +5149,7 @@
         <v>-5804.596632829989</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5575,7 +5281,7 @@
         <v>-6472.596532829989</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5674,7 +5380,7 @@
         <v>-6472.596532829989</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5707,7 +5413,7 @@
         <v>-6434.596532829989</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6048,6 +5754,6 @@
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>313.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>314</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-8667.26597101</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>311</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>314</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-8689.26597101</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>310.9</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-8687.26597101</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>310</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-8848.065971009999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>310.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>309.1</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>310.9</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>-8902.384771009998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>310.9</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -822,7 +882,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -931,9 +991,11 @@
         <v>-8983.184471009998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>310.8</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -968,9 +1030,11 @@
         <v>-9948.976071009998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>310.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1005,9 +1069,11 @@
         <v>-9946.976071009998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>310.4</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1042,9 +1108,11 @@
         <v>-8888.678571009998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>314</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1079,9 +1147,11 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>315</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1116,9 +1186,11 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>314</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1153,9 +1225,11 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>314</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1190,9 +1264,11 @@
         <v>-8931.594471009998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>314</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1227,9 +1303,11 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>311.3</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1264,9 +1342,11 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>316.8</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1301,16 +1381,20 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>316.8</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1336,11 +1420,15 @@
         <v>-1694.830571009996</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1369,11 +1457,15 @@
         <v>-1372.308471009996</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1402,11 +1494,15 @@
         <v>-1982.683071009996</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1531,15 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1468,11 +1568,15 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1501,11 +1605,15 @@
         <v>-6924.422471009997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1538,7 +1646,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1567,11 +1679,17 @@
         <v>-9200.503571009996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>310.3</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1604,7 +1722,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1633,11 +1755,15 @@
         <v>-9214.503571009996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1666,11 +1792,17 @@
         <v>-9232.503571009996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>312.9</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1831,17 @@
         <v>-9236.503571009996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>312</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1870,17 @@
         <v>-9252.503571009996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>311.8</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1765,11 +1909,17 @@
         <v>-9582.109371009996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>311</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1798,11 +1948,17 @@
         <v>-10766.42297101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>310.2</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1831,11 +1987,17 @@
         <v>-10768.42297101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>310.1</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +2026,17 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>310</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +2065,17 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>310.1</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1935,10 +2109,12 @@
       <c r="I45" t="n">
         <v>310.1</v>
       </c>
-      <c r="J45" t="n">
-        <v>310.1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1972,12 +2148,10 @@
       <c r="I46" t="n">
         <v>315.5</v>
       </c>
-      <c r="J46" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2011,12 +2185,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>310.1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2051,7 +2223,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2084,7 +2260,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2117,7 +2297,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2150,7 +2334,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2183,7 +2371,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2216,7 +2408,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2249,7 +2445,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2478,15 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2515,15 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2552,15 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2589,15 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2626,15 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2663,15 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2700,15 @@
         <v>-10255.93177101</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2737,15 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2542,11 +2774,15 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2811,15 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2608,11 +2848,15 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2641,11 +2885,15 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2922,15 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2959,15 @@
         <v>-10282.86747100999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2996,15 @@
         <v>-10358.10137100999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +3033,15 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +3070,15 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +3107,15 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2876,7 +3148,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2909,7 +3185,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2942,7 +3222,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2975,7 +3259,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3008,7 +3296,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3041,7 +3333,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3074,7 +3370,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3103,11 +3403,15 @@
         <v>-12718.80227100999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3136,11 +3440,15 @@
         <v>-11994.20667100999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3477,15 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +3514,15 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3239,7 +3555,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3272,7 +3592,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3305,7 +3629,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3338,7 +3666,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3367,14 +3699,16 @@
         <v>12260.49401759001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3400,7 +3734,7 @@
         <v>12364.19401759001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3433,7 +3767,7 @@
         <v>10716.30172538001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3466,7 +3800,7 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3499,7 +3833,7 @@
         <v>11147.52274547001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3532,7 +3866,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3565,7 +3899,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3598,7 +3932,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3631,7 +3965,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3664,7 +3998,7 @@
         <v>7413.28474547001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3697,7 +4031,7 @@
         <v>7477.64774547001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3730,7 +4064,7 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3895,7 +4229,7 @@
         <v>4947.93346717001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4258,7 +4592,7 @@
         <v>929.9640671700099</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4291,7 +4625,7 @@
         <v>913.9640671700099</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4324,7 +4658,7 @@
         <v>962.3386671700099</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-25 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-8575.26597101</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>-8569.26597101</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>313.9</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>-8669.26597101</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>314</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-8667.26597101</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>311</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,19 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-8669.26597101</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>314</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +615,21 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>-8689.26597101</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>310.9</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +651,21 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>-8687.26597101</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>310</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +687,21 @@
         <v>160.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-8848.065971009999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>310.9</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +723,21 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>-8846.065971009999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>309.1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +759,21 @@
         <v>92</v>
       </c>
       <c r="G11" t="n">
-        <v>-8846.065971009999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>310.9</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +795,19 @@
         <v>56.3188</v>
       </c>
       <c r="G12" t="n">
-        <v>-8902.384771009998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +829,19 @@
         <v>702</v>
       </c>
       <c r="G13" t="n">
-        <v>-9604.384771009998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +863,19 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>-9600.384771009998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>308.1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +897,19 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>-9598.384771009998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +931,19 @@
         <v>615.2003</v>
       </c>
       <c r="G16" t="n">
-        <v>-8983.184471009998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>310.8</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +965,21 @@
         <v>965.7916</v>
       </c>
       <c r="G17" t="n">
-        <v>-9948.976071009998</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
         <v>310.9</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +1001,21 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>-9946.976071009998</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
         <v>310.4</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +1037,21 @@
         <v>1058.2975</v>
       </c>
       <c r="G19" t="n">
-        <v>-8888.678571009998</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
         <v>314</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +1073,19 @@
         <v>6.9165</v>
       </c>
       <c r="G20" t="n">
-        <v>-8895.595071009997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>315</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1107,19 @@
         <v>232.5582</v>
       </c>
       <c r="G21" t="n">
-        <v>-8895.595071009997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>314</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1141,19 @@
         <v>1438.4087</v>
       </c>
       <c r="G22" t="n">
-        <v>-8895.595071009997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>314</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1175,19 @@
         <v>35.9994</v>
       </c>
       <c r="G23" t="n">
-        <v>-8931.594471009998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>314</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1209,19 @@
         <v>988.5294</v>
       </c>
       <c r="G24" t="n">
-        <v>-7943.065071009997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>311.3</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,24 +1243,21 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>-7943.065071009997</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
         <v>316.8</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,24 +1279,19 @@
         <v>9442.221600000001</v>
       </c>
       <c r="G26" t="n">
-        <v>1499.156528990004</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1417,22 +1313,19 @@
         <v>3193.9871</v>
       </c>
       <c r="G27" t="n">
-        <v>-1694.830571009996</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1454,22 +1347,19 @@
         <v>322.5221</v>
       </c>
       <c r="G28" t="n">
-        <v>-1372.308471009996</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1491,22 +1381,19 @@
         <v>610.3746</v>
       </c>
       <c r="G29" t="n">
-        <v>-1982.683071009996</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1528,22 +1415,19 @@
         <v>4010</v>
       </c>
       <c r="G30" t="n">
-        <v>-5992.683071009997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1565,22 +1449,19 @@
         <v>1092.298</v>
       </c>
       <c r="G31" t="n">
-        <v>-5992.683071009997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,22 +1483,19 @@
         <v>931.7394</v>
       </c>
       <c r="G32" t="n">
-        <v>-6924.422471009997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1639,22 +1517,19 @@
         <v>2280.0811</v>
       </c>
       <c r="G33" t="n">
-        <v>-9204.503571009996</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1676,24 +1551,21 @@
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>-9200.503571009996</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
         <v>310.3</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1715,22 +1587,19 @@
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>-9204.503571009996</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1752,22 +1621,19 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-9214.503571009996</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1789,24 +1655,19 @@
         <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>-9232.503571009996</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>312.9</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1828,24 +1689,21 @@
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>-9236.503571009996</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
         <v>312</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1867,24 +1725,21 @@
         <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>-9252.503571009996</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
         <v>311.8</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1906,24 +1761,21 @@
         <v>329.6058</v>
       </c>
       <c r="G40" t="n">
-        <v>-9582.109371009996</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
         <v>311</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1945,24 +1797,21 @@
         <v>1184.3136</v>
       </c>
       <c r="G41" t="n">
-        <v>-10766.42297101</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
         <v>310.2</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1984,24 +1833,21 @@
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>-10768.42297101</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
         <v>310.1</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2023,24 +1869,21 @@
         <v>174.4677</v>
       </c>
       <c r="G43" t="n">
-        <v>-10593.95527101</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
         <v>310</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2062,24 +1905,21 @@
         <v>195.0585</v>
       </c>
       <c r="G44" t="n">
-        <v>-10593.95527101</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
         <v>310.1</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2101,24 +1941,21 @@
         <v>395</v>
       </c>
       <c r="G45" t="n">
-        <v>-10198.95527101</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
         <v>310.1</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2140,24 +1977,21 @@
         <v>158.2174</v>
       </c>
       <c r="G46" t="n">
-        <v>-10357.17267101</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
         <v>315.5</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2179,22 +2013,21 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>-10359.17267101</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>314.4</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2216,22 +2049,21 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-10361.17267101</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>314.3</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2253,22 +2085,21 @@
         <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>-10367.17267101</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>314.2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2290,22 +2121,21 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>-10365.17267101</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2327,22 +2157,21 @@
         <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>-10343.17267101</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>314.7</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2364,22 +2193,21 @@
         <v>1409.2746</v>
       </c>
       <c r="G52" t="n">
-        <v>-10343.17267101</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>315.7</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2401,22 +2229,21 @@
         <v>67.7466</v>
       </c>
       <c r="G53" t="n">
-        <v>-10343.17267101</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>315.7</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2438,22 +2265,21 @@
         <v>413.0467</v>
       </c>
       <c r="G54" t="n">
-        <v>-10343.17267101</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>315.7</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2475,22 +2301,21 @@
         <v>26</v>
       </c>
       <c r="G55" t="n">
-        <v>-10317.17267101</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>315.7</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,22 +2337,21 @@
         <v>809.9712</v>
       </c>
       <c r="G56" t="n">
-        <v>-10317.17267101</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2549,22 +2373,21 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>-10317.17267101</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2586,22 +2409,21 @@
         <v>950</v>
       </c>
       <c r="G58" t="n">
-        <v>-9367.172671009996</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2623,22 +2445,21 @@
         <v>4412.4206</v>
       </c>
       <c r="G59" t="n">
-        <v>-13779.59327101</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>319.5</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2660,22 +2481,21 @@
         <v>4159.3615</v>
       </c>
       <c r="G60" t="n">
-        <v>-9620.231771009996</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2697,22 +2517,21 @@
         <v>635.7</v>
       </c>
       <c r="G61" t="n">
-        <v>-10255.93177101</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>318.8</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2734,22 +2553,21 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>-10253.93177101</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>318.7</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2771,22 +2589,21 @@
         <v>12.333</v>
       </c>
       <c r="G63" t="n">
-        <v>-10253.93177101</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>319.5</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2808,22 +2625,21 @@
         <v>973.9571999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>-9279.974571009996</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>319.5</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2845,22 +2661,21 @@
         <v>1383.0953</v>
       </c>
       <c r="G65" t="n">
-        <v>-9279.974571009996</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>319.8</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2882,22 +2697,21 @@
         <v>920.1068</v>
       </c>
       <c r="G66" t="n">
-        <v>-9279.974571009996</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>319.8</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2919,22 +2733,21 @@
         <v>4000</v>
       </c>
       <c r="G67" t="n">
-        <v>-5279.974571009996</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>319.8</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2956,22 +2769,21 @@
         <v>5002.8929</v>
       </c>
       <c r="G68" t="n">
-        <v>-10282.86747100999</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>322.4</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2993,22 +2805,21 @@
         <v>75.23390000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-10358.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>322.3</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3030,22 +2841,21 @@
         <v>325</v>
       </c>
       <c r="G70" t="n">
-        <v>-10683.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3067,22 +2877,21 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>-10681.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>318.6</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3104,22 +2913,21 @@
         <v>502</v>
       </c>
       <c r="G72" t="n">
-        <v>-10681.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3141,22 +2949,21 @@
         <v>935.1607</v>
       </c>
       <c r="G73" t="n">
-        <v>-10681.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3178,22 +2985,19 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>-10679.10137100999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3215,22 +3019,19 @@
         <v>1101.3676</v>
       </c>
       <c r="G75" t="n">
-        <v>-10679.10137100999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3252,22 +3053,21 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>-10679.10137100999</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3289,22 +3089,19 @@
         <v>354.0679</v>
       </c>
       <c r="G77" t="n">
-        <v>-11033.16927100999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3326,22 +3123,21 @@
         <v>187.0561</v>
       </c>
       <c r="G78" t="n">
-        <v>-11033.16927100999</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3363,22 +3159,21 @@
         <v>1687.633</v>
       </c>
       <c r="G79" t="n">
-        <v>-12720.80227100999</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3400,22 +3195,21 @@
         <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>-12718.80227100999</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>319.1</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3437,22 +3231,21 @@
         <v>724.5956</v>
       </c>
       <c r="G81" t="n">
-        <v>-11994.20667100999</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3474,22 +3267,21 @@
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>-11992.20667100999</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3511,22 +3303,19 @@
         <v>17876.7481</v>
       </c>
       <c r="G83" t="n">
-        <v>5884.541428990007</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3548,22 +3337,19 @@
         <v>6.6955</v>
       </c>
       <c r="G84" t="n">
-        <v>5877.845928990007</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3585,22 +3371,19 @@
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>5879.845928990007</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3622,22 +3405,19 @@
         <v>2067.08173815</v>
       </c>
       <c r="G86" t="n">
-        <v>7946.927667140008</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3659,22 +3439,17 @@
         <v>5868.005</v>
       </c>
       <c r="G87" t="n">
-        <v>13814.93266714001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,20 +3471,15 @@
         <v>1554.43864955</v>
       </c>
       <c r="G88" t="n">
-        <v>12260.49401759001</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K88" t="n">
+        <v>1</v>
       </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3731,18 +3501,15 @@
         <v>103.7</v>
       </c>
       <c r="G89" t="n">
-        <v>12364.19401759001</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3764,18 +3531,15 @@
         <v>1647.89229221</v>
       </c>
       <c r="G90" t="n">
-        <v>10716.30172538001</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3797,18 +3561,15 @@
         <v>561.00132009</v>
       </c>
       <c r="G91" t="n">
-        <v>11277.30304547001</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3830,18 +3591,15 @@
         <v>129.7803</v>
       </c>
       <c r="G92" t="n">
-        <v>11147.52274547001</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3863,18 +3621,15 @@
         <v>447.7847</v>
       </c>
       <c r="G93" t="n">
-        <v>11595.30744547001</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3896,18 +3651,15 @@
         <v>6.4878</v>
       </c>
       <c r="G94" t="n">
-        <v>11595.30744547001</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3929,18 +3681,15 @@
         <v>694.1138</v>
       </c>
       <c r="G95" t="n">
-        <v>10901.19364547001</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3962,18 +3711,15 @@
         <v>488</v>
       </c>
       <c r="G96" t="n">
-        <v>10901.19364547001</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3995,18 +3741,15 @@
         <v>3487.9089</v>
       </c>
       <c r="G97" t="n">
-        <v>7413.28474547001</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4028,18 +3771,15 @@
         <v>64.363</v>
       </c>
       <c r="G98" t="n">
-        <v>7477.64774547001</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4061,18 +3801,15 @@
         <v>1320.9803783</v>
       </c>
       <c r="G99" t="n">
-        <v>6156.66736717001</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4094,18 +3831,15 @@
         <v>746.5</v>
       </c>
       <c r="G100" t="n">
-        <v>6903.16736717001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4127,18 +3861,15 @@
         <v>1210</v>
       </c>
       <c r="G101" t="n">
-        <v>5693.16736717001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4160,18 +3891,15 @@
         <v>35</v>
       </c>
       <c r="G102" t="n">
-        <v>5728.16736717001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4193,18 +3921,15 @@
         <v>171.0278</v>
       </c>
       <c r="G103" t="n">
-        <v>5557.13956717001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4226,18 +3951,15 @@
         <v>609.2061</v>
       </c>
       <c r="G104" t="n">
-        <v>4947.93346717001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4259,18 +3981,15 @@
         <v>968.9694</v>
       </c>
       <c r="G105" t="n">
-        <v>3978.96406717001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4292,18 +4011,15 @@
         <v>3043</v>
       </c>
       <c r="G106" t="n">
-        <v>935.9640671700099</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4325,18 +4041,15 @@
         <v>6</v>
       </c>
       <c r="G107" t="n">
-        <v>935.9640671700099</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4358,18 +4071,15 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>938.9640671700099</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4391,18 +4101,15 @@
         <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>942.9640671700099</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4424,18 +4131,15 @@
         <v>4</v>
       </c>
       <c r="G110" t="n">
-        <v>938.9640671700099</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4457,18 +4161,15 @@
         <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>934.9640671700099</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4490,18 +4191,15 @@
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>938.9640671700099</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4523,18 +4221,15 @@
         <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>934.9640671700099</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4556,18 +4251,15 @@
         <v>4</v>
       </c>
       <c r="G114" t="n">
-        <v>938.9640671700099</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4589,18 +4281,15 @@
         <v>9</v>
       </c>
       <c r="G115" t="n">
-        <v>929.9640671700099</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4622,18 +4311,15 @@
         <v>16</v>
       </c>
       <c r="G116" t="n">
-        <v>913.9640671700099</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4655,18 +4341,15 @@
         <v>48.3746</v>
       </c>
       <c r="G117" t="n">
-        <v>962.3386671700099</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4688,18 +4371,15 @@
         <v>6.7536</v>
       </c>
       <c r="G118" t="n">
-        <v>955.5850671700099</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4721,18 +4401,15 @@
         <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>957.5850671700099</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4754,18 +4431,15 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>955.5850671700099</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4787,18 +4461,15 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>953.5850671700099</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4820,18 +4491,15 @@
         <v>8</v>
       </c>
       <c r="G122" t="n">
-        <v>961.5850671700099</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4853,18 +4521,15 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>959.5850671700099</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4886,18 +4551,15 @@
         <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>963.5850671700099</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4919,18 +4581,15 @@
         <v>102</v>
       </c>
       <c r="G125" t="n">
-        <v>963.5850671700099</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4952,18 +4611,15 @@
         <v>4507.3862</v>
       </c>
       <c r="G126" t="n">
-        <v>-3543.80113282999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4985,18 +4641,15 @@
         <v>407.1065</v>
       </c>
       <c r="G127" t="n">
-        <v>-3950.90763282999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5018,18 +4671,15 @@
         <v>14</v>
       </c>
       <c r="G128" t="n">
-        <v>-3964.90763282999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5051,18 +4701,15 @@
         <v>1161.0338</v>
       </c>
       <c r="G129" t="n">
-        <v>-2803.87383282999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5084,18 +4731,15 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>-2801.87383282999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5117,18 +4761,15 @@
         <v>595.7</v>
       </c>
       <c r="G131" t="n">
-        <v>-2801.87383282999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5150,18 +4791,15 @@
         <v>155.99</v>
       </c>
       <c r="G132" t="n">
-        <v>-2801.87383282999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5183,18 +4821,15 @@
         <v>40</v>
       </c>
       <c r="G133" t="n">
-        <v>-2841.87383282999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5216,18 +4851,15 @@
         <v>278.4531</v>
       </c>
       <c r="G134" t="n">
-        <v>-2563.420732829989</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5249,18 +4881,15 @@
         <v>1086.1263</v>
       </c>
       <c r="G135" t="n">
-        <v>-3649.547032829989</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,18 +4911,15 @@
         <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>-3647.547032829989</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5315,18 +4941,15 @@
         <v>134.0168</v>
       </c>
       <c r="G137" t="n">
-        <v>-3781.563832829989</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5348,18 +4971,15 @@
         <v>382</v>
       </c>
       <c r="G138" t="n">
-        <v>-4163.563832829989</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5381,18 +5001,15 @@
         <v>1151.9672</v>
       </c>
       <c r="G139" t="n">
-        <v>-3011.596632829989</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5414,18 +5031,15 @@
         <v>2793</v>
       </c>
       <c r="G140" t="n">
-        <v>-5804.596632829989</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5447,18 +5061,15 @@
         <v>98.82340000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-5804.596632829989</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5480,18 +5091,15 @@
         <v>101.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>-5804.596632829989</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5513,18 +5121,15 @@
         <v>667.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5546,18 +5151,15 @@
         <v>199.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5579,18 +5181,15 @@
         <v>2090.1579</v>
       </c>
       <c r="G145" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5612,18 +5211,15 @@
         <v>1487.3542</v>
       </c>
       <c r="G146" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5645,18 +5241,15 @@
         <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5678,18 +5271,15 @@
         <v>196</v>
       </c>
       <c r="G148" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5711,18 +5301,15 @@
         <v>400.7239</v>
       </c>
       <c r="G149" t="n">
-        <v>-6472.596532829989</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5744,18 +5331,15 @@
         <v>38</v>
       </c>
       <c r="G150" t="n">
-        <v>-6434.596532829989</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5777,18 +5361,15 @@
         <v>115.64</v>
       </c>
       <c r="G151" t="n">
-        <v>-6550.236532829989</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5810,18 +5391,15 @@
         <v>10772.0306</v>
       </c>
       <c r="G152" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5843,18 +5421,15 @@
         <v>116.1334</v>
       </c>
       <c r="G153" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5876,18 +5451,15 @@
         <v>97</v>
       </c>
       <c r="G154" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5909,18 +5481,15 @@
         <v>124</v>
       </c>
       <c r="G155" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5942,18 +5511,15 @@
         <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5975,18 +5541,15 @@
         <v>1047.8131</v>
       </c>
       <c r="G157" t="n">
-        <v>-17322.26713282999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6008,18 +5571,15 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>-17332.26713282999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6041,18 +5601,15 @@
         <v>143.5545</v>
       </c>
       <c r="G159" t="n">
-        <v>-17475.82163282999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6074,18 +5631,21 @@
         <v>16947.7395</v>
       </c>
       <c r="G160" t="n">
-        <v>-34423.56113282999</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>311.4</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
